--- a/biomagnetometer/darpa/xls/Lin_DARPA_Tasks.xlsx
+++ b/biomagnetometer/darpa/xls/Lin_DARPA_Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-42780" yWindow="2580" windowWidth="38980" windowHeight="25780" tabRatio="947"/>
+    <workbookView xWindow="1900" yWindow="700" windowWidth="38980" windowHeight="25780" tabRatio="947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary by Task" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="230">
   <si>
     <t>Short TA text identifier</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -945,6 +945,9 @@
   <si>
     <t>III</t>
   </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
 </sst>
 </file>
 
@@ -1722,7 +1725,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1787,6 +1790,12 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2815,228 +2824,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="8" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="20" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3047,8 +2834,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="8" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="20" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="70">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="3"/>
     <cellStyle name="Currency 2 2" xfId="9"/>
@@ -3080,6 +3089,9 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
@@ -3107,6 +3119,9 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -3479,11 +3494,11 @@
   </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3581,23 +3596,23 @@
       </c>
       <c r="D7" s="136">
         <f>'Phase I'!$BD22</f>
-        <v>720635.82743084978</v>
+        <v>729292.39695585077</v>
       </c>
       <c r="E7" s="136">
         <f>'Phase II'!$BD22</f>
-        <v>561090.48228316486</v>
+        <v>561088.48228313331</v>
       </c>
       <c r="F7" s="136">
         <f>'Phase III'!$BD22</f>
-        <v>577401.0167516598</v>
+        <v>577398.0167516598</v>
       </c>
       <c r="G7" s="137">
         <f>SUM(D7:F7)</f>
-        <v>1859127.3264656744</v>
+        <v>1867778.8959906439</v>
       </c>
       <c r="H7" s="138">
         <f>G7/G$11</f>
-        <v>0.90576322792399089</v>
+        <v>0.90615877132048206</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" hidden="1">
@@ -3682,7 +3697,7 @@
       </c>
       <c r="H10" s="138">
         <f>G10/G$11</f>
-        <v>9.423677207600907E-2</v>
+        <v>9.3841228679517941E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16">
@@ -3693,19 +3708,19 @@
       </c>
       <c r="D11" s="142">
         <f>SUM(D7:D10)</f>
-        <v>797784.82743084978</v>
+        <v>806441.39695585077</v>
       </c>
       <c r="E11" s="142">
         <f>SUM(E7:E10)</f>
-        <v>618338.48228316486</v>
+        <v>618336.48228313331</v>
       </c>
       <c r="F11" s="142">
         <f>SUM(F7:F10)</f>
-        <v>636430.0167516598</v>
+        <v>636427.0167516598</v>
       </c>
       <c r="G11" s="142">
         <f>SUM(G7:G10)</f>
-        <v>2052553.3264656744</v>
+        <v>2061204.8959906439</v>
       </c>
       <c r="H11" s="143">
         <f>SUM(H7:H10)</f>
@@ -3772,11 +3787,11 @@
       </c>
       <c r="D15" s="136">
         <f>'Phase I'!$I22</f>
-        <v>198615.99810050981</v>
+        <v>176986.06762551088</v>
       </c>
       <c r="E15" s="136">
         <f>'Phase II'!$I22</f>
-        <v>160138.58802590086</v>
+        <v>158593.58802586998</v>
       </c>
       <c r="F15" s="136">
         <f>'Phase III'!$I22</f>
@@ -3784,11 +3799,11 @@
       </c>
       <c r="G15" s="137">
         <f>SUM(D15:F15)</f>
-        <v>523419.23179308849</v>
+        <v>500244.30131805874</v>
       </c>
       <c r="H15" s="138">
         <f>G15/G$32</f>
-        <v>0.25500883462763563</v>
+        <v>0.2426950868839434</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16">
@@ -3817,7 +3832,7 @@
       </c>
       <c r="H16" s="138">
         <f t="shared" ref="H16:H31" si="1">G16/G$32</f>
-        <v>0.26342379938735144</v>
+        <v>0.26231812118943704</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16">
@@ -3830,23 +3845,23 @@
       </c>
       <c r="D17" s="136">
         <f>'Phase I'!$M22</f>
-        <v>210707.69999999998</v>
+        <v>217409.1</v>
       </c>
       <c r="E17" s="136">
         <f>'Phase II'!$M22</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="F17" s="136">
         <f>'Phase III'!$M22</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="G17" s="137">
         <f t="shared" ref="G17:G31" si="2">SUM(D17:F17)</f>
-        <v>543452.1</v>
+        <v>550149.25</v>
       </c>
       <c r="H17" s="138">
         <f t="shared" si="1"/>
-        <v>0.26476880916696044</v>
+        <v>0.26690662877335669</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16">
@@ -3859,23 +3874,23 @@
       </c>
       <c r="D18" s="136">
         <f>'Phase I'!$O22</f>
-        <v>95622.874114627455</v>
+        <v>119207.97411462734</v>
       </c>
       <c r="E18" s="136">
         <f>'Phase II'!$O22</f>
-        <v>76747.572342474712</v>
+        <v>78292.272342474113</v>
       </c>
       <c r="F18" s="136">
         <f>'Phase III'!$O22</f>
-        <v>79194.152512748959</v>
+        <v>79193.702512748976</v>
       </c>
       <c r="G18" s="137">
         <f t="shared" si="2"/>
-        <v>251564.59896985113</v>
+        <v>276693.94896985043</v>
       </c>
       <c r="H18" s="138">
         <f t="shared" si="1"/>
-        <v>0.12256178474204342</v>
+        <v>0.13423893447374502</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" hidden="1">
@@ -4241,7 +4256,7 @@
       </c>
       <c r="H31" s="138">
         <f t="shared" si="1"/>
-        <v>9.4236772076009084E-2</v>
+        <v>9.3841228679517955E-2</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="16">
@@ -4251,23 +4266,23 @@
       </c>
       <c r="D32" s="142">
         <f>SUM(D15:D31)</f>
-        <v>797784.82743084966</v>
+        <v>806441.39695585065</v>
       </c>
       <c r="E32" s="142">
         <f>SUM(E15:E31)</f>
-        <v>618338.48228316475</v>
+        <v>618336.48228313331</v>
       </c>
       <c r="F32" s="142">
         <f>SUM(F15:F31)</f>
-        <v>636430.0167516598</v>
+        <v>636427.0167516598</v>
       </c>
       <c r="G32" s="142">
         <f>SUM(G15:G31)</f>
-        <v>2052553.3264656742</v>
+        <v>2061204.8959906437</v>
       </c>
       <c r="H32" s="145">
         <f>SUM(H15:H31)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -4450,7 +4465,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="188"/>
-      <c r="B7" s="423"/>
+      <c r="B7" s="349"/>
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
       <c r="E7" s="189"/>
@@ -4499,23 +4514,23 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="385"/>
-      <c r="C9" s="385"/>
-      <c r="D9" s="385"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="385"/>
-      <c r="G9" s="385"/>
-      <c r="H9" s="385"/>
-      <c r="I9" s="385"/>
-      <c r="J9" s="385"/>
-      <c r="K9" s="385"/>
-      <c r="L9" s="385"/>
-      <c r="M9" s="385"/>
-      <c r="N9" s="385"/>
-      <c r="O9" s="385"/>
+      <c r="B9" s="389"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="389"/>
+      <c r="I9" s="389"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="389"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="389"/>
       <c r="P9" s="198">
         <f>SUM(P7:P8)</f>
         <v>0</v>
@@ -4546,23 +4561,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="385"/>
-      <c r="C11" s="385"/>
-      <c r="D11" s="385"/>
-      <c r="E11" s="385"/>
-      <c r="F11" s="385"/>
-      <c r="G11" s="385"/>
-      <c r="H11" s="385"/>
-      <c r="I11" s="385"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="385"/>
-      <c r="L11" s="385"/>
-      <c r="M11" s="385"/>
-      <c r="N11" s="385"/>
-      <c r="O11" s="385"/>
+      <c r="B11" s="389"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="389"/>
       <c r="P11" s="198">
         <f>SUM(P10:P10)</f>
         <v>0</v>
@@ -4593,23 +4608,23 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
-      <c r="A13" s="385" t="s">
+      <c r="A13" s="389" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="385"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
-      <c r="F13" s="385"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="385"/>
-      <c r="I13" s="385"/>
-      <c r="J13" s="385"/>
-      <c r="K13" s="385"/>
-      <c r="L13" s="385"/>
-      <c r="M13" s="385"/>
-      <c r="N13" s="385"/>
-      <c r="O13" s="385"/>
+      <c r="B13" s="389"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="389"/>
+      <c r="H13" s="389"/>
+      <c r="I13" s="389"/>
+      <c r="J13" s="389"/>
+      <c r="K13" s="389"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="389"/>
+      <c r="O13" s="389"/>
       <c r="P13" s="198">
         <f>SUM(P12:P12)</f>
         <v>0</v>
@@ -4973,49 +4988,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="37.5" customHeight="1">
-      <c r="C1" s="413" t="s">
+      <c r="C1" s="401" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
-      <c r="I1" s="414"/>
-      <c r="J1" s="414"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="414"/>
-      <c r="M1" s="415"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1">
-      <c r="C2" s="416" t="s">
+      <c r="C2" s="404" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="416"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="417"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1">
-      <c r="C3" s="416" t="s">
+      <c r="C3" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="416"/>
-      <c r="E3" s="417"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
     </row>
     <row r="4" spans="1:54" s="314" customFormat="1" ht="40">
       <c r="A4" s="307" t="s">
@@ -5104,7 +5119,7 @@
       <c r="B5" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="418" t="s">
+      <c r="C5" s="399" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="317">
@@ -5144,7 +5159,7 @@
       <c r="B6" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="419"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="322">
         <v>1.1000000000000001</v>
       </c>
@@ -5179,7 +5194,7 @@
     <row r="7" spans="1:54" ht="23.25" customHeight="1">
       <c r="A7" s="326"/>
       <c r="B7" s="326"/>
-      <c r="C7" s="419"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="322">
         <v>1.2</v>
       </c>
@@ -5214,7 +5229,7 @@
     <row r="8" spans="1:54" ht="23.25" customHeight="1">
       <c r="A8" s="326"/>
       <c r="B8" s="326"/>
-      <c r="C8" s="419"/>
+      <c r="C8" s="400"/>
       <c r="D8" s="322">
         <v>1.3</v>
       </c>
@@ -5249,7 +5264,7 @@
     <row r="9" spans="1:54" ht="23.25" customHeight="1">
       <c r="A9" s="326"/>
       <c r="B9" s="326"/>
-      <c r="C9" s="419"/>
+      <c r="C9" s="400"/>
       <c r="D9" s="322">
         <v>1.4</v>
       </c>
@@ -5284,7 +5299,7 @@
     <row r="10" spans="1:54" ht="23.25" customHeight="1">
       <c r="A10" s="326"/>
       <c r="B10" s="326"/>
-      <c r="C10" s="419"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="322">
         <v>1.5</v>
       </c>
@@ -5319,7 +5334,7 @@
     <row r="11" spans="1:54" ht="23.25" customHeight="1">
       <c r="A11" s="326"/>
       <c r="B11" s="326"/>
-      <c r="C11" s="419"/>
+      <c r="C11" s="400"/>
       <c r="D11" s="322">
         <v>1.6</v>
       </c>
@@ -5354,7 +5369,7 @@
     <row r="12" spans="1:54" ht="23.25" customHeight="1">
       <c r="A12" s="326"/>
       <c r="B12" s="326"/>
-      <c r="C12" s="419"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="317">
         <v>2</v>
       </c>
@@ -5374,7 +5389,7 @@
     <row r="13" spans="1:54" ht="23.25" customHeight="1">
       <c r="A13" s="326"/>
       <c r="B13" s="326"/>
-      <c r="C13" s="419"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="322">
         <v>2.1</v>
       </c>
@@ -5393,7 +5408,7 @@
     <row r="14" spans="1:54" ht="23.25" customHeight="1">
       <c r="A14" s="326"/>
       <c r="B14" s="326"/>
-      <c r="C14" s="419"/>
+      <c r="C14" s="400"/>
       <c r="D14" s="322">
         <v>2.2000000000000002</v>
       </c>
@@ -5412,7 +5427,7 @@
     <row r="15" spans="1:54" ht="23.25" customHeight="1">
       <c r="A15" s="326"/>
       <c r="B15" s="326"/>
-      <c r="C15" s="419"/>
+      <c r="C15" s="400"/>
       <c r="D15" s="322">
         <v>2.2999999999999998</v>
       </c>
@@ -5431,7 +5446,7 @@
     <row r="16" spans="1:54" ht="23.25" customHeight="1">
       <c r="A16" s="326"/>
       <c r="B16" s="326"/>
-      <c r="C16" s="419"/>
+      <c r="C16" s="400"/>
       <c r="D16" s="322">
         <v>2.4</v>
       </c>
@@ -5450,7 +5465,7 @@
     <row r="17" spans="1:13" ht="23.25" customHeight="1">
       <c r="A17" s="326"/>
       <c r="B17" s="326"/>
-      <c r="C17" s="419"/>
+      <c r="C17" s="400"/>
       <c r="D17" s="322">
         <v>2.5</v>
       </c>
@@ -5469,7 +5484,7 @@
     <row r="18" spans="1:13" ht="23.25" customHeight="1">
       <c r="A18" s="326"/>
       <c r="B18" s="326"/>
-      <c r="C18" s="419"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="322">
         <v>2.6</v>
       </c>
@@ -5488,7 +5503,7 @@
     <row r="19" spans="1:13" ht="23.25" customHeight="1">
       <c r="A19" s="326"/>
       <c r="B19" s="326"/>
-      <c r="C19" s="419"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="317">
         <v>3</v>
       </c>
@@ -5508,7 +5523,7 @@
     <row r="20" spans="1:13" ht="23.25" customHeight="1">
       <c r="A20" s="326"/>
       <c r="B20" s="326"/>
-      <c r="C20" s="419"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="322">
         <v>3.1</v>
       </c>
@@ -5527,7 +5542,7 @@
     <row r="21" spans="1:13" ht="23.25" customHeight="1">
       <c r="A21" s="326"/>
       <c r="B21" s="326"/>
-      <c r="C21" s="419"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="322">
         <v>3.2</v>
       </c>
@@ -5546,7 +5561,7 @@
     <row r="22" spans="1:13" s="306" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="326"/>
       <c r="B22" s="326"/>
-      <c r="C22" s="419"/>
+      <c r="C22" s="400"/>
       <c r="D22" s="322">
         <v>3.3</v>
       </c>
@@ -5584,29 +5599,29 @@
     <row r="24" spans="1:13" s="306" customFormat="1" ht="32" customHeight="1">
       <c r="A24" s="328"/>
       <c r="B24" s="326"/>
-      <c r="C24" s="397" t="s">
+      <c r="C24" s="406" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="398"/>
-      <c r="E24" s="399"/>
-      <c r="F24" s="400">
+      <c r="D24" s="407"/>
+      <c r="E24" s="408"/>
+      <c r="F24" s="409">
         <f>SUM(F5,F12,F19)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="400"/>
-      <c r="H24" s="401"/>
-      <c r="I24" s="402"/>
-      <c r="J24" s="402"/>
-      <c r="K24" s="402"/>
-      <c r="L24" s="402"/>
-      <c r="M24" s="403"/>
+      <c r="G24" s="409"/>
+      <c r="H24" s="410"/>
+      <c r="I24" s="411"/>
+      <c r="J24" s="411"/>
+      <c r="K24" s="411"/>
+      <c r="L24" s="411"/>
+      <c r="M24" s="412"/>
     </row>
     <row r="25" spans="1:13" ht="23.25" customHeight="1">
       <c r="A25" s="315"/>
       <c r="B25" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="411" t="s">
+      <c r="C25" s="413" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="329">
@@ -5630,7 +5645,7 @@
       <c r="B26" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="412"/>
+      <c r="C26" s="414"/>
       <c r="D26" s="322">
         <v>1.1000000000000001</v>
       </c>
@@ -5649,7 +5664,7 @@
     <row r="27" spans="1:13" ht="23.25" customHeight="1">
       <c r="A27" s="326"/>
       <c r="B27" s="326"/>
-      <c r="C27" s="412"/>
+      <c r="C27" s="414"/>
       <c r="D27" s="322">
         <v>1.2</v>
       </c>
@@ -5668,7 +5683,7 @@
     <row r="28" spans="1:13" ht="23.25" customHeight="1">
       <c r="A28" s="326"/>
       <c r="B28" s="326"/>
-      <c r="C28" s="412"/>
+      <c r="C28" s="414"/>
       <c r="D28" s="322">
         <v>1.3</v>
       </c>
@@ -5687,7 +5702,7 @@
     <row r="29" spans="1:13" ht="23.25" customHeight="1">
       <c r="A29" s="326"/>
       <c r="B29" s="326"/>
-      <c r="C29" s="412"/>
+      <c r="C29" s="414"/>
       <c r="D29" s="322">
         <v>1.4</v>
       </c>
@@ -5706,7 +5721,7 @@
     <row r="30" spans="1:13" ht="23.25" customHeight="1">
       <c r="A30" s="326"/>
       <c r="B30" s="326"/>
-      <c r="C30" s="412"/>
+      <c r="C30" s="414"/>
       <c r="D30" s="322">
         <v>1.5</v>
       </c>
@@ -5725,7 +5740,7 @@
     <row r="31" spans="1:13" ht="23.25" customHeight="1">
       <c r="A31" s="326"/>
       <c r="B31" s="326"/>
-      <c r="C31" s="412"/>
+      <c r="C31" s="414"/>
       <c r="D31" s="322">
         <v>1.6</v>
       </c>
@@ -5744,7 +5759,7 @@
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="326"/>
       <c r="B32" s="326"/>
-      <c r="C32" s="412"/>
+      <c r="C32" s="414"/>
       <c r="D32" s="329">
         <v>2</v>
       </c>
@@ -5764,7 +5779,7 @@
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="326"/>
       <c r="B33" s="326"/>
-      <c r="C33" s="412"/>
+      <c r="C33" s="414"/>
       <c r="D33" s="322">
         <v>2.1</v>
       </c>
@@ -5783,7 +5798,7 @@
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="326"/>
       <c r="B34" s="326"/>
-      <c r="C34" s="412"/>
+      <c r="C34" s="414"/>
       <c r="D34" s="322">
         <v>2.2000000000000002</v>
       </c>
@@ -5802,7 +5817,7 @@
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="326"/>
       <c r="B35" s="326"/>
-      <c r="C35" s="412"/>
+      <c r="C35" s="414"/>
       <c r="D35" s="322">
         <v>2.2999999999999998</v>
       </c>
@@ -5821,7 +5836,7 @@
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="326"/>
       <c r="B36" s="326"/>
-      <c r="C36" s="412"/>
+      <c r="C36" s="414"/>
       <c r="D36" s="322">
         <v>2.4</v>
       </c>
@@ -5840,7 +5855,7 @@
     <row r="37" spans="1:13" ht="23.25" customHeight="1">
       <c r="A37" s="326"/>
       <c r="B37" s="326"/>
-      <c r="C37" s="412"/>
+      <c r="C37" s="414"/>
       <c r="D37" s="322">
         <v>2.5</v>
       </c>
@@ -5859,7 +5874,7 @@
     <row r="38" spans="1:13" ht="23.25" customHeight="1">
       <c r="A38" s="326"/>
       <c r="B38" s="326"/>
-      <c r="C38" s="412"/>
+      <c r="C38" s="414"/>
       <c r="D38" s="322">
         <v>2.6</v>
       </c>
@@ -5878,7 +5893,7 @@
     <row r="39" spans="1:13" ht="23.25" customHeight="1">
       <c r="A39" s="326"/>
       <c r="B39" s="326"/>
-      <c r="C39" s="412"/>
+      <c r="C39" s="414"/>
       <c r="D39" s="329">
         <v>3</v>
       </c>
@@ -5898,7 +5913,7 @@
     <row r="40" spans="1:13" ht="23.25" customHeight="1">
       <c r="A40" s="326"/>
       <c r="B40" s="326"/>
-      <c r="C40" s="412"/>
+      <c r="C40" s="414"/>
       <c r="D40" s="322">
         <v>3.1</v>
       </c>
@@ -5917,7 +5932,7 @@
     <row r="41" spans="1:13" ht="23.25" customHeight="1">
       <c r="A41" s="326"/>
       <c r="B41" s="326"/>
-      <c r="C41" s="412"/>
+      <c r="C41" s="414"/>
       <c r="D41" s="322">
         <v>3.2</v>
       </c>
@@ -5936,7 +5951,7 @@
     <row r="42" spans="1:13" s="306" customFormat="1" ht="23.25" customHeight="1">
       <c r="A42" s="326"/>
       <c r="B42" s="326"/>
-      <c r="C42" s="412"/>
+      <c r="C42" s="414"/>
       <c r="D42" s="322">
         <v>3.3</v>
       </c>
@@ -5974,29 +5989,29 @@
     <row r="44" spans="1:13" s="306" customFormat="1" ht="32" customHeight="1">
       <c r="A44" s="328"/>
       <c r="B44" s="326"/>
-      <c r="C44" s="397" t="s">
+      <c r="C44" s="406" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="398"/>
-      <c r="E44" s="399"/>
-      <c r="F44" s="400">
+      <c r="D44" s="407"/>
+      <c r="E44" s="408"/>
+      <c r="F44" s="409">
         <f>SUM(F25,F32,F39)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="400"/>
-      <c r="H44" s="401"/>
-      <c r="I44" s="402"/>
-      <c r="J44" s="402"/>
-      <c r="K44" s="402"/>
-      <c r="L44" s="402"/>
-      <c r="M44" s="403"/>
+      <c r="G44" s="409"/>
+      <c r="H44" s="410"/>
+      <c r="I44" s="411"/>
+      <c r="J44" s="411"/>
+      <c r="K44" s="411"/>
+      <c r="L44" s="411"/>
+      <c r="M44" s="412"/>
     </row>
     <row r="45" spans="1:13" ht="23.25" customHeight="1">
       <c r="A45" s="315"/>
       <c r="B45" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="395" t="s">
+      <c r="C45" s="415" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="335">
@@ -6020,7 +6035,7 @@
       <c r="B46" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="396"/>
+      <c r="C46" s="416"/>
       <c r="D46" s="322">
         <v>1.1000000000000001</v>
       </c>
@@ -6039,7 +6054,7 @@
     <row r="47" spans="1:13" ht="23.25" customHeight="1">
       <c r="A47" s="326"/>
       <c r="B47" s="326"/>
-      <c r="C47" s="396"/>
+      <c r="C47" s="416"/>
       <c r="D47" s="322">
         <v>1.2</v>
       </c>
@@ -6058,7 +6073,7 @@
     <row r="48" spans="1:13" ht="23.25" customHeight="1">
       <c r="A48" s="326"/>
       <c r="B48" s="326"/>
-      <c r="C48" s="396"/>
+      <c r="C48" s="416"/>
       <c r="D48" s="322">
         <v>1.3</v>
       </c>
@@ -6077,7 +6092,7 @@
     <row r="49" spans="1:13" ht="23.25" customHeight="1">
       <c r="A49" s="326"/>
       <c r="B49" s="326"/>
-      <c r="C49" s="396"/>
+      <c r="C49" s="416"/>
       <c r="D49" s="322">
         <v>1.4</v>
       </c>
@@ -6096,7 +6111,7 @@
     <row r="50" spans="1:13" ht="23.25" customHeight="1">
       <c r="A50" s="326"/>
       <c r="B50" s="326"/>
-      <c r="C50" s="396"/>
+      <c r="C50" s="416"/>
       <c r="D50" s="322">
         <v>1.5</v>
       </c>
@@ -6115,7 +6130,7 @@
     <row r="51" spans="1:13" ht="23.25" customHeight="1">
       <c r="A51" s="326"/>
       <c r="B51" s="326"/>
-      <c r="C51" s="396"/>
+      <c r="C51" s="416"/>
       <c r="D51" s="322">
         <v>1.6</v>
       </c>
@@ -6134,7 +6149,7 @@
     <row r="52" spans="1:13" ht="23.25" customHeight="1">
       <c r="A52" s="326"/>
       <c r="B52" s="326"/>
-      <c r="C52" s="396"/>
+      <c r="C52" s="416"/>
       <c r="D52" s="335">
         <v>2</v>
       </c>
@@ -6154,7 +6169,7 @@
     <row r="53" spans="1:13" ht="23.25" customHeight="1">
       <c r="A53" s="326"/>
       <c r="B53" s="326"/>
-      <c r="C53" s="396"/>
+      <c r="C53" s="416"/>
       <c r="D53" s="322">
         <v>2.1</v>
       </c>
@@ -6173,7 +6188,7 @@
     <row r="54" spans="1:13" ht="23.25" customHeight="1">
       <c r="A54" s="326"/>
       <c r="B54" s="326"/>
-      <c r="C54" s="396"/>
+      <c r="C54" s="416"/>
       <c r="D54" s="322">
         <v>2.2000000000000002</v>
       </c>
@@ -6192,7 +6207,7 @@
     <row r="55" spans="1:13" ht="23.25" customHeight="1">
       <c r="A55" s="326"/>
       <c r="B55" s="326"/>
-      <c r="C55" s="396"/>
+      <c r="C55" s="416"/>
       <c r="D55" s="322">
         <v>2.2999999999999998</v>
       </c>
@@ -6211,7 +6226,7 @@
     <row r="56" spans="1:13" ht="23.25" customHeight="1">
       <c r="A56" s="326"/>
       <c r="B56" s="326"/>
-      <c r="C56" s="396"/>
+      <c r="C56" s="416"/>
       <c r="D56" s="322">
         <v>2.4</v>
       </c>
@@ -6230,7 +6245,7 @@
     <row r="57" spans="1:13" ht="23.25" customHeight="1">
       <c r="A57" s="326"/>
       <c r="B57" s="326"/>
-      <c r="C57" s="396"/>
+      <c r="C57" s="416"/>
       <c r="D57" s="322">
         <v>2.5</v>
       </c>
@@ -6249,7 +6264,7 @@
     <row r="58" spans="1:13" ht="23.25" customHeight="1">
       <c r="A58" s="326"/>
       <c r="B58" s="326"/>
-      <c r="C58" s="396"/>
+      <c r="C58" s="416"/>
       <c r="D58" s="322">
         <v>2.6</v>
       </c>
@@ -6268,7 +6283,7 @@
     <row r="59" spans="1:13" ht="23.25" customHeight="1">
       <c r="A59" s="326"/>
       <c r="B59" s="326"/>
-      <c r="C59" s="396"/>
+      <c r="C59" s="416"/>
       <c r="D59" s="335">
         <v>3</v>
       </c>
@@ -6288,7 +6303,7 @@
     <row r="60" spans="1:13" ht="23.25" customHeight="1">
       <c r="A60" s="326"/>
       <c r="B60" s="326"/>
-      <c r="C60" s="396"/>
+      <c r="C60" s="416"/>
       <c r="D60" s="322">
         <v>3.1</v>
       </c>
@@ -6307,7 +6322,7 @@
     <row r="61" spans="1:13" ht="23.25" customHeight="1">
       <c r="A61" s="326"/>
       <c r="B61" s="326"/>
-      <c r="C61" s="396"/>
+      <c r="C61" s="416"/>
       <c r="D61" s="322">
         <v>3.2</v>
       </c>
@@ -6326,7 +6341,7 @@
     <row r="62" spans="1:13" s="306" customFormat="1" ht="23.25" customHeight="1">
       <c r="A62" s="326"/>
       <c r="B62" s="326"/>
-      <c r="C62" s="396"/>
+      <c r="C62" s="416"/>
       <c r="D62" s="322">
         <v>3.3</v>
       </c>
@@ -6364,49 +6379,50 @@
     <row r="64" spans="1:13" s="306" customFormat="1" ht="31.5" customHeight="1">
       <c r="A64" s="328"/>
       <c r="B64" s="326"/>
-      <c r="C64" s="397" t="s">
+      <c r="C64" s="406" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="398"/>
-      <c r="E64" s="399"/>
-      <c r="F64" s="400">
+      <c r="D64" s="407"/>
+      <c r="E64" s="408"/>
+      <c r="F64" s="409">
         <f>SUM(F45,F52,F59)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="400"/>
-      <c r="H64" s="401"/>
-      <c r="I64" s="402"/>
-      <c r="J64" s="402"/>
-      <c r="K64" s="402"/>
-      <c r="L64" s="402"/>
-      <c r="M64" s="403"/>
+      <c r="G64" s="409"/>
+      <c r="H64" s="410"/>
+      <c r="I64" s="411"/>
+      <c r="J64" s="411"/>
+      <c r="K64" s="411"/>
+      <c r="L64" s="411"/>
+      <c r="M64" s="412"/>
     </row>
     <row r="65" spans="3:13" ht="45" customHeight="1">
-      <c r="C65" s="404" t="s">
+      <c r="C65" s="417" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="405"/>
-      <c r="E65" s="406"/>
-      <c r="F65" s="407">
+      <c r="D65" s="418"/>
+      <c r="E65" s="419"/>
+      <c r="F65" s="420">
         <f>SUM(F24,F44,F64)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="407"/>
-      <c r="H65" s="408"/>
-      <c r="I65" s="409"/>
-      <c r="J65" s="409"/>
-      <c r="K65" s="409"/>
-      <c r="L65" s="409"/>
-      <c r="M65" s="410"/>
+      <c r="G65" s="420"/>
+      <c r="H65" s="421"/>
+      <c r="I65" s="422"/>
+      <c r="J65" s="422"/>
+      <c r="K65" s="422"/>
+      <c r="L65" s="422"/>
+      <c r="M65" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="C45:C62"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:M65"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:M24"/>
@@ -6414,13 +6430,12 @@
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:M44"/>
-    <mergeCell ref="C45:C62"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:M3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="31" fitToHeight="2" orientation="portrait"/>
@@ -6440,13 +6455,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6611,7 +6626,7 @@
       <c r="D10" s="64"/>
       <c r="E10" s="160">
         <f>'Phase I'!$BD$10</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
       <c r="F10" s="160">
         <f>'Phase I'!$BF$10</f>
@@ -6627,7 +6642,7 @@
       <c r="I10" s="63"/>
       <c r="J10" s="161">
         <f>'Phase I'!$BM$10</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
@@ -6665,7 +6680,7 @@
       <c r="D12" s="64"/>
       <c r="E12" s="160">
         <f>'Phase I'!$BD$13</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="F12" s="160">
         <f>'Phase I'!$BF$13</f>
@@ -6681,7 +6696,7 @@
       <c r="I12" s="63"/>
       <c r="J12" s="161">
         <f>'Phase I'!$BM$13</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="80" customFormat="1">
@@ -6692,7 +6707,7 @@
       <c r="D13" s="64"/>
       <c r="E13" s="162">
         <f>'Phase I'!$BD$14</f>
-        <v>539401.69412999984</v>
+        <v>547785.73913000047</v>
       </c>
       <c r="F13" s="162">
         <f>'Phase I'!$BF$14</f>
@@ -6709,7 +6724,7 @@
       <c r="I13" s="63"/>
       <c r="J13" s="163">
         <f>'Phase I'!$BM$14</f>
-        <v>607285.69412999984</v>
+        <v>615669.73913000047</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="80" customFormat="1">
@@ -6720,7 +6735,7 @@
       <c r="D14" s="64"/>
       <c r="E14" s="160">
         <f>'Phase I'!$BD$20</f>
-        <v>332539.69412999984</v>
+        <v>333039.73913000047</v>
       </c>
       <c r="F14" s="160">
         <f>'Phase I'!$BF$20</f>
@@ -6737,7 +6752,7 @@
       <c r="I14" s="63"/>
       <c r="J14" s="161">
         <f>'Phase I'!$BM$20</f>
-        <v>400423.69412999984</v>
+        <v>400923.73913000047</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="80" customFormat="1" ht="14" thickBot="1">
@@ -6748,7 +6763,7 @@
       <c r="D15" s="64"/>
       <c r="E15" s="164">
         <f>'Phase I'!$BD$21</f>
-        <v>181234.13330084994</v>
+        <v>181506.65782585027</v>
       </c>
       <c r="F15" s="164">
         <f>'Phase I'!$BF$21</f>
@@ -6765,7 +6780,7 @@
       <c r="I15" s="63"/>
       <c r="J15" s="165">
         <f>'Phase I'!$BM$21</f>
-        <v>190499.13330084994</v>
+        <v>190771.65782585027</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="61" customFormat="1" ht="17" thickBot="1">
@@ -6776,7 +6791,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="166">
         <f>'Phase I'!$BD$22</f>
-        <v>720635.82743084978</v>
+        <v>729292.39695585077</v>
       </c>
       <c r="F16" s="166">
         <f>'Phase I'!$BF$22</f>
@@ -6793,10 +6808,10 @@
       <c r="I16" s="63"/>
       <c r="J16" s="166">
         <f>'Phase I'!$BM$22</f>
-        <v>797784.82743084978</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
+        <v>806441.39695585077</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="61" customFormat="1" ht="14" thickBot="1">
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
       <c r="D17" s="64"/>
@@ -6807,7 +6822,7 @@
       <c r="I17" s="63"/>
       <c r="J17" s="157"/>
     </row>
-    <row r="18" spans="2:10" s="61" customFormat="1" ht="17" thickBot="1">
+    <row r="18" spans="2:15" s="61" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="156" t="s">
         <v>68</v>
       </c>
@@ -6820,7 +6835,7 @@
       <c r="I18" s="63"/>
       <c r="J18" s="157"/>
     </row>
-    <row r="19" spans="2:10" s="61" customFormat="1">
+    <row r="19" spans="2:15" s="61" customFormat="1">
       <c r="B19" s="63"/>
       <c r="C19" s="70" t="s">
         <v>20</v>
@@ -6847,7 +6862,7 @@
         <v>206656.62283699989</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="61" customFormat="1">
+    <row r="20" spans="2:15" s="61" customFormat="1">
       <c r="B20" s="63"/>
       <c r="C20" s="70" t="s">
         <v>37</v>
@@ -6855,7 +6870,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="160">
         <f>'Phase II'!$BD$10</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
       <c r="F20" s="160">
         <f>'Phase II'!$BF$10</f>
@@ -6871,10 +6886,10 @@
       <c r="I20" s="63"/>
       <c r="J20" s="161">
         <f>'Phase II'!$BM$10</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="61" customFormat="1">
+        <v>31999.999999979598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="61" customFormat="1">
       <c r="B21" s="63"/>
       <c r="C21" s="70" t="s">
         <v>38</v>
@@ -6901,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="61" customFormat="1">
+    <row r="22" spans="2:15" s="61" customFormat="1">
       <c r="B22" s="63"/>
       <c r="C22" s="199" t="s">
         <v>116</v>
@@ -6909,7 +6924,7 @@
       <c r="D22" s="64"/>
       <c r="E22" s="160">
         <f>'Phase II'!$BD$13</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="F22" s="160">
         <f>'Phase II'!$BF$13</f>
@@ -6925,10 +6940,13 @@
       <c r="I22" s="63"/>
       <c r="J22" s="161">
         <f>'Phase II'!$BM$13</f>
-        <v>192366</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="80" customFormat="1">
+        <v>192364</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="80" customFormat="1">
       <c r="B23" s="63"/>
       <c r="C23" s="81" t="s">
         <v>24</v>
@@ -6936,7 +6954,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="162">
         <f>'Phase II'!$BD$14</f>
-        <v>431022.62283699989</v>
+        <v>431020.62283697946</v>
       </c>
       <c r="F23" s="162">
         <f>'Phase II'!$BF$14</f>
@@ -6953,10 +6971,10 @@
       <c r="I23" s="63"/>
       <c r="J23" s="163">
         <f>'Phase II'!$BM$14</f>
-        <v>480640.62283699989</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="80" customFormat="1">
+        <v>480638.62283697946</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="80" customFormat="1">
       <c r="B24" s="63"/>
       <c r="C24" s="70" t="s">
         <v>22</v>
@@ -6964,7 +6982,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="160">
         <f>'Phase II'!$BD$20</f>
-        <v>238656.62283699989</v>
+        <v>238656.62283697946</v>
       </c>
       <c r="F24" s="160">
         <f>'Phase II'!$BF$20</f>
@@ -6981,10 +6999,10 @@
       <c r="I24" s="63"/>
       <c r="J24" s="161">
         <f>'Phase II'!$BM$20</f>
-        <v>288274.62283699989</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="80" customFormat="1" ht="14" thickBot="1">
+        <v>288274.62283697946</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="80" customFormat="1" ht="14" thickBot="1">
       <c r="B25" s="63"/>
       <c r="C25" s="81" t="s">
         <v>23</v>
@@ -6992,7 +7010,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="164">
         <f>'Phase II'!$BD$21</f>
-        <v>130067.85944616495</v>
+        <v>130067.85944615382</v>
       </c>
       <c r="F25" s="164">
         <f>'Phase II'!$BF$21</f>
@@ -7009,10 +7027,10 @@
       <c r="I25" s="63"/>
       <c r="J25" s="165">
         <f>'Phase II'!$BM$21</f>
-        <v>137697.85944616495</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="61" customFormat="1" ht="17" thickBot="1">
+        <v>137697.85944615383</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="61" customFormat="1" ht="17" thickBot="1">
       <c r="B26" s="63"/>
       <c r="C26" s="84" t="s">
         <v>21</v>
@@ -7020,7 +7038,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="166">
         <f>'Phase II'!$BD$22</f>
-        <v>561090.48228316486</v>
+        <v>561088.48228313331</v>
       </c>
       <c r="F26" s="166">
         <f>'Phase II'!$BF$22</f>
@@ -7037,10 +7055,10 @@
       <c r="I26" s="63"/>
       <c r="J26" s="166">
         <f>'Phase II'!$BM$22</f>
-        <v>618338.48228316486</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
+        <v>618336.48228313331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="61" customFormat="1" ht="14" thickBot="1">
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
@@ -7051,7 +7069,7 @@
       <c r="I27" s="63"/>
       <c r="J27" s="157"/>
     </row>
-    <row r="28" spans="2:10" s="61" customFormat="1" ht="17" thickBot="1">
+    <row r="28" spans="2:15" s="61" customFormat="1" ht="17" thickBot="1">
       <c r="B28" s="156" t="s">
         <v>69</v>
       </c>
@@ -7064,7 +7082,7 @@
       <c r="I28" s="63"/>
       <c r="J28" s="157"/>
     </row>
-    <row r="29" spans="2:10" s="61" customFormat="1">
+    <row r="29" spans="2:15" s="61" customFormat="1">
       <c r="B29" s="63"/>
       <c r="C29" s="70" t="s">
         <v>20</v>
@@ -7091,7 +7109,7 @@
         <v>212856.32152210991</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="61" customFormat="1">
+    <row r="30" spans="2:15" s="61" customFormat="1">
       <c r="B30" s="63"/>
       <c r="C30" s="70" t="s">
         <v>37</v>
@@ -7118,7 +7136,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="61" customFormat="1">
+    <row r="31" spans="2:15" s="61" customFormat="1">
       <c r="B31" s="63"/>
       <c r="C31" s="70" t="s">
         <v>38</v>
@@ -7145,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="61" customFormat="1">
+    <row r="32" spans="2:15" s="61" customFormat="1">
       <c r="B32" s="63"/>
       <c r="C32" s="199" t="s">
         <v>116</v>
@@ -7153,7 +7171,7 @@
       <c r="D32" s="64"/>
       <c r="E32" s="160">
         <f>'Phase III'!$BD$13</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="F32" s="160">
         <f>'Phase III'!$BF$13</f>
@@ -7169,7 +7187,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="161">
         <f>'Phase III'!$BM$13</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="33" spans="2:10" s="80" customFormat="1">
@@ -7180,7 +7198,7 @@
       <c r="D33" s="64"/>
       <c r="E33" s="162">
         <f>'Phase III'!$BD$14</f>
-        <v>443954.32152210991</v>
+        <v>443951.32152210991</v>
       </c>
       <c r="F33" s="162">
         <f>'Phase III'!$BF$14</f>
@@ -7197,7 +7215,7 @@
       <c r="I33" s="63"/>
       <c r="J33" s="163">
         <f>'Phase III'!$BM$14</f>
-        <v>495353.32152210991</v>
+        <v>495350.32152210991</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="80" customFormat="1">
@@ -7264,7 +7282,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="166">
         <f>'Phase III'!$BD$22</f>
-        <v>577401.0167516598</v>
+        <v>577398.0167516598</v>
       </c>
       <c r="F36" s="166">
         <f>'Phase III'!$BF$22</f>
@@ -7281,7 +7299,7 @@
       <c r="I36" s="63"/>
       <c r="J36" s="166">
         <f>'Phase III'!$BM$22</f>
-        <v>636430.0167516598</v>
+        <v>636427.0167516598</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
@@ -7313,7 +7331,7 @@
       <c r="D39" s="64"/>
       <c r="E39" s="86">
         <f>E16+E26+E36</f>
-        <v>1859127.3264656744</v>
+        <v>1867778.8959906439</v>
       </c>
       <c r="F39" s="86">
         <f>F16+F26+F36</f>
@@ -7330,7 +7348,7 @@
       <c r="I39" s="63"/>
       <c r="J39" s="86">
         <f>J16+J26+J36</f>
-        <v>2052553.3264656744</v>
+        <v>2061204.8959906439</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -7369,7 +7387,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45:C47"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7447,57 +7465,57 @@
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="61"/>
-      <c r="H1" s="346" t="s">
+      <c r="H1" s="365" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
-      <c r="R1" s="346"/>
-      <c r="S1" s="346"/>
-      <c r="T1" s="346"/>
-      <c r="U1" s="346"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="365"/>
       <c r="V1" s="37"/>
-      <c r="W1" s="346" t="s">
+      <c r="W1" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="346"/>
-      <c r="Y1" s="346"/>
-      <c r="Z1" s="346"/>
-      <c r="AA1" s="346"/>
-      <c r="AB1" s="346"/>
-      <c r="AC1" s="346"/>
-      <c r="AD1" s="346"/>
-      <c r="AE1" s="346"/>
-      <c r="AF1" s="346"/>
-      <c r="AG1" s="346"/>
-      <c r="AH1" s="346"/>
-      <c r="AI1" s="346"/>
-      <c r="AJ1" s="346"/>
-      <c r="AL1" s="346" t="s">
+      <c r="X1" s="365"/>
+      <c r="Y1" s="365"/>
+      <c r="Z1" s="365"/>
+      <c r="AA1" s="365"/>
+      <c r="AB1" s="365"/>
+      <c r="AC1" s="365"/>
+      <c r="AD1" s="365"/>
+      <c r="AE1" s="365"/>
+      <c r="AF1" s="365"/>
+      <c r="AG1" s="365"/>
+      <c r="AH1" s="365"/>
+      <c r="AI1" s="365"/>
+      <c r="AJ1" s="365"/>
+      <c r="AL1" s="365" t="s">
         <v>164</v>
       </c>
-      <c r="AM1" s="346"/>
-      <c r="AN1" s="346"/>
-      <c r="AO1" s="346"/>
-      <c r="AP1" s="346"/>
-      <c r="AQ1" s="346"/>
-      <c r="AR1" s="346"/>
-      <c r="AS1" s="346"/>
-      <c r="AT1" s="346"/>
-      <c r="AU1" s="346"/>
+      <c r="AM1" s="365"/>
+      <c r="AN1" s="365"/>
+      <c r="AO1" s="365"/>
+      <c r="AP1" s="365"/>
+      <c r="AQ1" s="365"/>
+      <c r="AR1" s="365"/>
+      <c r="AS1" s="365"/>
+      <c r="AT1" s="365"/>
+      <c r="AU1" s="365"/>
       <c r="AV1" s="37"/>
-      <c r="AW1" s="371" t="s">
+      <c r="AW1" s="350" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="371"/>
-      <c r="AY1" s="371"/>
+      <c r="AX1" s="350"/>
+      <c r="AY1" s="350"/>
     </row>
     <row r="2" spans="1:65" s="37" customFormat="1" ht="23">
       <c r="A2" s="34" t="s">
@@ -7512,48 +7530,48 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346"/>
-      <c r="U2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="346"/>
-      <c r="AB2" s="346"/>
-      <c r="AC2" s="346"/>
-      <c r="AD2" s="346"/>
-      <c r="AE2" s="346"/>
-      <c r="AF2" s="346"/>
-      <c r="AG2" s="346"/>
-      <c r="AH2" s="346"/>
-      <c r="AI2" s="346"/>
-      <c r="AJ2" s="346"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
+      <c r="R2" s="365"/>
+      <c r="S2" s="365"/>
+      <c r="T2" s="365"/>
+      <c r="U2" s="365"/>
+      <c r="W2" s="365"/>
+      <c r="X2" s="365"/>
+      <c r="Y2" s="365"/>
+      <c r="Z2" s="365"/>
+      <c r="AA2" s="365"/>
+      <c r="AB2" s="365"/>
+      <c r="AC2" s="365"/>
+      <c r="AD2" s="365"/>
+      <c r="AE2" s="365"/>
+      <c r="AF2" s="365"/>
+      <c r="AG2" s="365"/>
+      <c r="AH2" s="365"/>
+      <c r="AI2" s="365"/>
+      <c r="AJ2" s="365"/>
       <c r="AK2"/>
-      <c r="AL2" s="346"/>
-      <c r="AM2" s="346"/>
-      <c r="AN2" s="346"/>
-      <c r="AO2" s="346"/>
-      <c r="AP2" s="346"/>
-      <c r="AQ2" s="346"/>
-      <c r="AR2" s="346"/>
-      <c r="AS2" s="346"/>
-      <c r="AT2" s="346"/>
-      <c r="AU2" s="346"/>
-      <c r="AW2" s="371"/>
-      <c r="AX2" s="371"/>
-      <c r="AY2" s="371"/>
+      <c r="AL2" s="365"/>
+      <c r="AM2" s="365"/>
+      <c r="AN2" s="365"/>
+      <c r="AO2" s="365"/>
+      <c r="AP2" s="365"/>
+      <c r="AQ2" s="365"/>
+      <c r="AR2" s="365"/>
+      <c r="AS2" s="365"/>
+      <c r="AT2" s="365"/>
+      <c r="AU2" s="365"/>
+      <c r="AW2" s="350"/>
+      <c r="AX2" s="350"/>
+      <c r="AY2" s="350"/>
       <c r="BA2" s="43"/>
       <c r="BC2" s="44"/>
       <c r="BD2" s="45"/>
@@ -7574,128 +7592,128 @@
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="366" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="363" t="s">
+      <c r="I3" s="366" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="364" t="s">
+      <c r="J3" s="367" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="365" t="s">
+      <c r="K3" s="368" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="366" t="s">
+      <c r="L3" s="369" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="366" t="s">
+      <c r="M3" s="369" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="367" t="s">
+      <c r="N3" s="371" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="367" t="s">
+      <c r="O3" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="368" t="s">
+      <c r="P3" s="372" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="370" t="s">
+      <c r="Q3" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="375" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="361" t="s">
+      <c r="S3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="352" t="s">
+      <c r="T3" s="370" t="s">
         <v>170</v>
       </c>
-      <c r="U3" s="352" t="s">
+      <c r="U3" s="370" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="353" t="s">
+      <c r="W3" s="376" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="353" t="s">
+      <c r="X3" s="376" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="354" t="s">
+      <c r="Y3" s="377" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="355" t="s">
+      <c r="Z3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="356" t="s">
+      <c r="AA3" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="356" t="s">
+      <c r="AB3" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="357" t="s">
+      <c r="AC3" s="380" t="s">
         <v>160</v>
       </c>
-      <c r="AD3" s="357" t="s">
+      <c r="AD3" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="358" t="s">
+      <c r="AE3" s="381" t="s">
         <v>161</v>
       </c>
-      <c r="AF3" s="360" t="s">
+      <c r="AF3" s="383" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="361" t="s">
+      <c r="AG3" s="375" t="s">
         <v>162</v>
       </c>
-      <c r="AH3" s="361" t="s">
+      <c r="AH3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="352" t="s">
+      <c r="AI3" s="370" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="352" t="s">
+      <c r="AJ3" s="370" t="s">
         <v>4</v>
       </c>
       <c r="AK3"/>
-      <c r="AL3" s="347" t="s">
+      <c r="AL3" s="384" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="347" t="s">
+      <c r="AM3" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="348" t="s">
+      <c r="AN3" s="385" t="s">
         <v>51</v>
       </c>
-      <c r="AO3" s="349" t="s">
+      <c r="AO3" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="350" t="s">
+      <c r="AP3" s="387" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="350" t="s">
+      <c r="AQ3" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="351" t="s">
+      <c r="AR3" s="388" t="s">
         <v>165</v>
       </c>
-      <c r="AS3" s="351" t="s">
+      <c r="AS3" s="388" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="352" t="s">
+      <c r="AT3" s="370" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="352" t="s">
+      <c r="AU3" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="374" t="s">
+      <c r="AW3" s="353" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" s="376" t="s">
+      <c r="AX3" s="355" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="372" t="s">
+      <c r="AY3" s="351" t="s">
         <v>105</v>
       </c>
       <c r="BA3" s="43"/>
@@ -7708,8 +7726,8 @@
       <c r="BI3" s="44"/>
       <c r="BJ3" s="45"/>
       <c r="BK3" s="200"/>
-      <c r="BL3" s="378"/>
-      <c r="BM3" s="378"/>
+      <c r="BL3" s="357"/>
+      <c r="BM3" s="357"/>
     </row>
     <row r="4" spans="1:65" s="37" customFormat="1" ht="18">
       <c r="A4" s="48"/>
@@ -7717,50 +7735,50 @@
       <c r="C4" s="206"/>
       <c r="D4" s="206"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="363"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="366"/>
-      <c r="M4" s="366"/>
-      <c r="N4" s="367"/>
-      <c r="O4" s="367"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="361"/>
-      <c r="S4" s="361"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="352"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="375"/>
+      <c r="S4" s="375"/>
+      <c r="T4" s="370"/>
+      <c r="U4" s="370"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="353"/>
-      <c r="X4" s="353"/>
-      <c r="Y4" s="354"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="356"/>
-      <c r="AB4" s="356"/>
-      <c r="AC4" s="357"/>
-      <c r="AD4" s="357"/>
-      <c r="AE4" s="359"/>
-      <c r="AF4" s="360"/>
-      <c r="AG4" s="361"/>
-      <c r="AH4" s="361"/>
-      <c r="AI4" s="352"/>
-      <c r="AJ4" s="352"/>
+      <c r="W4" s="376"/>
+      <c r="X4" s="376"/>
+      <c r="Y4" s="377"/>
+      <c r="Z4" s="378"/>
+      <c r="AA4" s="379"/>
+      <c r="AB4" s="379"/>
+      <c r="AC4" s="380"/>
+      <c r="AD4" s="380"/>
+      <c r="AE4" s="382"/>
+      <c r="AF4" s="383"/>
+      <c r="AG4" s="375"/>
+      <c r="AH4" s="375"/>
+      <c r="AI4" s="370"/>
+      <c r="AJ4" s="370"/>
       <c r="AK4"/>
-      <c r="AL4" s="347"/>
-      <c r="AM4" s="347"/>
-      <c r="AN4" s="348"/>
-      <c r="AO4" s="349"/>
-      <c r="AP4" s="350"/>
-      <c r="AQ4" s="350"/>
-      <c r="AR4" s="351"/>
-      <c r="AS4" s="351"/>
-      <c r="AT4" s="352"/>
-      <c r="AU4" s="352"/>
+      <c r="AL4" s="384"/>
+      <c r="AM4" s="384"/>
+      <c r="AN4" s="385"/>
+      <c r="AO4" s="386"/>
+      <c r="AP4" s="387"/>
+      <c r="AQ4" s="387"/>
+      <c r="AR4" s="388"/>
+      <c r="AS4" s="388"/>
+      <c r="AT4" s="370"/>
+      <c r="AU4" s="370"/>
       <c r="AV4" s="36"/>
-      <c r="AW4" s="374"/>
-      <c r="AX4" s="376"/>
-      <c r="AY4" s="372"/>
+      <c r="AW4" s="353"/>
+      <c r="AX4" s="355"/>
+      <c r="AY4" s="351"/>
       <c r="BA4" s="43"/>
       <c r="BC4" s="44"/>
       <c r="BD4" s="45"/>
@@ -7775,72 +7793,72 @@
       <c r="BM4" s="69"/>
     </row>
     <row r="5" spans="1:65" s="37" customFormat="1" ht="18">
-      <c r="A5" s="362"/>
-      <c r="B5" s="362"/>
+      <c r="A5" s="364"/>
+      <c r="B5" s="364"/>
       <c r="C5" s="223"/>
       <c r="D5" s="206"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="363"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="365"/>
-      <c r="L5" s="366"/>
-      <c r="M5" s="366"/>
-      <c r="N5" s="367"/>
-      <c r="O5" s="367"/>
-      <c r="P5" s="369"/>
-      <c r="Q5" s="370"/>
-      <c r="R5" s="361"/>
-      <c r="S5" s="361"/>
-      <c r="T5" s="352"/>
-      <c r="U5" s="352"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="371"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="373"/>
+      <c r="Q5" s="374"/>
+      <c r="R5" s="375"/>
+      <c r="S5" s="375"/>
+      <c r="T5" s="370"/>
+      <c r="U5" s="370"/>
       <c r="V5" s="36"/>
-      <c r="W5" s="353"/>
-      <c r="X5" s="353"/>
-      <c r="Y5" s="354"/>
-      <c r="Z5" s="355"/>
-      <c r="AA5" s="356"/>
-      <c r="AB5" s="356"/>
-      <c r="AC5" s="357"/>
-      <c r="AD5" s="357"/>
-      <c r="AE5" s="359"/>
-      <c r="AF5" s="360"/>
-      <c r="AG5" s="361"/>
-      <c r="AH5" s="361"/>
-      <c r="AI5" s="352"/>
-      <c r="AJ5" s="352"/>
+      <c r="W5" s="376"/>
+      <c r="X5" s="376"/>
+      <c r="Y5" s="377"/>
+      <c r="Z5" s="378"/>
+      <c r="AA5" s="379"/>
+      <c r="AB5" s="379"/>
+      <c r="AC5" s="380"/>
+      <c r="AD5" s="380"/>
+      <c r="AE5" s="382"/>
+      <c r="AF5" s="383"/>
+      <c r="AG5" s="375"/>
+      <c r="AH5" s="375"/>
+      <c r="AI5" s="370"/>
+      <c r="AJ5" s="370"/>
       <c r="AK5"/>
-      <c r="AL5" s="347"/>
-      <c r="AM5" s="347"/>
-      <c r="AN5" s="348"/>
-      <c r="AO5" s="349"/>
-      <c r="AP5" s="350"/>
-      <c r="AQ5" s="350"/>
-      <c r="AR5" s="351"/>
-      <c r="AS5" s="351"/>
-      <c r="AT5" s="352"/>
-      <c r="AU5" s="352"/>
+      <c r="AL5" s="384"/>
+      <c r="AM5" s="384"/>
+      <c r="AN5" s="385"/>
+      <c r="AO5" s="386"/>
+      <c r="AP5" s="387"/>
+      <c r="AQ5" s="387"/>
+      <c r="AR5" s="388"/>
+      <c r="AS5" s="388"/>
+      <c r="AT5" s="370"/>
+      <c r="AU5" s="370"/>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="374"/>
-      <c r="AX5" s="376"/>
-      <c r="AY5" s="372"/>
+      <c r="AW5" s="353"/>
+      <c r="AX5" s="355"/>
+      <c r="AY5" s="351"/>
       <c r="BA5" s="43"/>
-      <c r="BC5" s="381" t="s">
+      <c r="BC5" s="360" t="s">
         <v>168</v>
       </c>
-      <c r="BD5" s="381"/>
-      <c r="BE5" s="382" t="s">
+      <c r="BD5" s="360"/>
+      <c r="BE5" s="361" t="s">
         <v>153</v>
       </c>
-      <c r="BF5" s="382"/>
-      <c r="BG5" s="383" t="s">
+      <c r="BF5" s="361"/>
+      <c r="BG5" s="362" t="s">
         <v>154</v>
       </c>
-      <c r="BH5" s="383"/>
-      <c r="BI5" s="384" t="s">
+      <c r="BH5" s="362"/>
+      <c r="BI5" s="363" t="s">
         <v>167</v>
       </c>
-      <c r="BJ5" s="384"/>
+      <c r="BJ5" s="363"/>
       <c r="BK5" s="200"/>
       <c r="BL5" s="202"/>
       <c r="BM5" s="69"/>
@@ -7964,29 +7982,29 @@
         <v>7</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="375"/>
-      <c r="AX6" s="377"/>
-      <c r="AY6" s="373"/>
+      <c r="AW6" s="354"/>
+      <c r="AX6" s="356"/>
+      <c r="AY6" s="352"/>
       <c r="BA6" s="43"/>
-      <c r="BC6" s="379" t="s">
+      <c r="BC6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BD6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="379" t="s">
+      <c r="BE6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BF6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BG6" s="379" t="s">
+      <c r="BG6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BH6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BI6" s="379" t="s">
+      <c r="BI6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BJ6" s="51" t="s">
@@ -8140,19 +8158,19 @@
         <v>9</v>
       </c>
       <c r="BA7" s="59"/>
-      <c r="BC7" s="380"/>
+      <c r="BC7" s="359"/>
       <c r="BD7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="BE7" s="380"/>
+      <c r="BE7" s="359"/>
       <c r="BF7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="BG7" s="380"/>
+      <c r="BG7" s="359"/>
       <c r="BH7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="BI7" s="380"/>
+      <c r="BI7" s="359"/>
       <c r="BJ7" s="60" t="s">
         <v>7</v>
       </c>
@@ -8445,7 +8463,7 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>I56</f>
-        <v>19000</v>
+        <v>5000.0450000006995</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72">
@@ -8460,7 +8478,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="72">
         <f>O56</f>
-        <v>0</v>
+        <v>14499.999999999929</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -8475,7 +8493,7 @@
       <c r="T10" s="73"/>
       <c r="U10" s="275">
         <f>U56</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
       <c r="W10" s="71"/>
       <c r="X10" s="72">
@@ -8545,7 +8563,7 @@
       <c r="BC10" s="68"/>
       <c r="BD10" s="75">
         <f>BD56</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
       <c r="BE10" s="68"/>
       <c r="BF10" s="76">
@@ -8565,7 +8583,7 @@
       <c r="BL10" s="78"/>
       <c r="BM10" s="79">
         <f>BM56</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
     </row>
     <row r="11" spans="1:65" s="61" customFormat="1" ht="14">
@@ -8860,12 +8878,12 @@
       <c r="L13" s="71"/>
       <c r="M13" s="72">
         <f>M71</f>
-        <v>197082.69999999998</v>
+        <v>203784.1</v>
       </c>
       <c r="N13" s="71"/>
       <c r="O13" s="72">
         <f>O71</f>
-        <v>34779.299999999996</v>
+        <v>35961.9</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -8880,7 +8898,7 @@
       <c r="T13" s="73"/>
       <c r="U13" s="275">
         <f>U71</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="W13" s="71"/>
       <c r="X13" s="72">
@@ -8952,7 +8970,7 @@
       <c r="BC13" s="68"/>
       <c r="BD13" s="75">
         <f>BD71</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="BE13" s="68"/>
       <c r="BF13" s="76">
@@ -8972,7 +8990,7 @@
       <c r="BL13" s="78"/>
       <c r="BM13" s="79">
         <f>BM71</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
     </row>
     <row r="14" spans="1:65" s="80" customFormat="1" ht="14">
@@ -8987,7 +9005,7 @@
       <c r="H14" s="71"/>
       <c r="I14" s="72">
         <f>SUM(I9:I13)</f>
-        <v>128554.04407799988</v>
+        <v>114554.08907800057</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72">
@@ -8997,12 +9015,12 @@
       <c r="L14" s="71"/>
       <c r="M14" s="72">
         <f>SUM(M9:M13)</f>
-        <v>197082.69999999998</v>
+        <v>203784.1</v>
       </c>
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>74160.254119499965</v>
+        <v>89842.854119499898</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -9017,7 +9035,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>539401.69412999984</v>
+        <v>547785.73913000047</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -9096,7 +9114,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>539401.69412999984</v>
+        <v>547785.73913000047</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -9116,7 +9134,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>607285.69412999984</v>
+        <v>615669.73913000047</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -9366,12 +9384,12 @@
       <c r="L18" s="244"/>
       <c r="M18" s="260">
         <f>M13-25000</f>
-        <v>172082.69999999998</v>
+        <v>178784.1</v>
       </c>
       <c r="N18" s="244"/>
       <c r="O18" s="260">
         <f>O13</f>
-        <v>34779.299999999996</v>
+        <v>35961.9</v>
       </c>
       <c r="P18" s="244"/>
       <c r="Q18" s="260"/>
@@ -9380,7 +9398,7 @@
       <c r="T18" s="73"/>
       <c r="U18" s="275">
         <f>(SUM(I18,K18,M18,O18,Q18,S18))</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
       <c r="W18" s="243"/>
       <c r="X18" s="260"/>
@@ -9420,7 +9438,7 @@
       <c r="BC18" s="68"/>
       <c r="BD18" s="75">
         <f>$U18</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
       <c r="BE18" s="68"/>
       <c r="BF18" s="76">
@@ -9437,7 +9455,7 @@
       <c r="BL18" s="78"/>
       <c r="BM18" s="79">
         <f>SUM(BD18,BF18,BH18)</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
     </row>
     <row r="19" spans="2:65" s="80" customFormat="1" ht="14">
@@ -9462,12 +9480,12 @@
       <c r="L19" s="244"/>
       <c r="M19" s="244">
         <f>SUM(M16:M18)</f>
-        <v>172082.69999999998</v>
+        <v>178784.1</v>
       </c>
       <c r="N19" s="244"/>
       <c r="O19" s="244">
         <f>SUM(O16:O18)</f>
-        <v>34779.299999999996</v>
+        <v>35961.9</v>
       </c>
       <c r="P19" s="244"/>
       <c r="Q19" s="244">
@@ -9482,7 +9500,7 @@
       <c r="T19" s="73"/>
       <c r="U19" s="275">
         <f>SUM(U16:U18)</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
       <c r="W19" s="243"/>
       <c r="X19" s="244">
@@ -9552,7 +9570,7 @@
       <c r="BC19" s="68"/>
       <c r="BD19" s="75">
         <f>SUM(BD16:BD18)</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
       <c r="BE19" s="68"/>
       <c r="BF19" s="76">
@@ -9569,7 +9587,7 @@
       <c r="BL19" s="78"/>
       <c r="BM19" s="79">
         <f>SUM(BD19,BF19,BH19)</f>
-        <v>206861.99999999997</v>
+        <v>214746</v>
       </c>
     </row>
     <row r="20" spans="2:65" s="80" customFormat="1" ht="14">
@@ -9584,7 +9602,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f>I14-I19</f>
-        <v>128554.04407799988</v>
+        <v>114554.08907800057</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72">
@@ -9599,7 +9617,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72">
         <f t="shared" si="1"/>
-        <v>39380.954119499969</v>
+        <v>53880.954119499896</v>
       </c>
       <c r="P20" s="72"/>
       <c r="Q20" s="72">
@@ -9614,7 +9632,7 @@
       <c r="T20" s="72"/>
       <c r="U20" s="275">
         <f>U14-U19</f>
-        <v>332539.69412999984</v>
+        <v>333039.73913000047</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="72">
@@ -9693,7 +9711,7 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="75">
         <f>BD14-BD19</f>
-        <v>332539.69412999984</v>
+        <v>333039.73913000047</v>
       </c>
       <c r="BE20" s="68"/>
       <c r="BF20" s="76">
@@ -9713,7 +9731,7 @@
       <c r="BL20" s="78"/>
       <c r="BM20" s="79">
         <f>SUM(BD20,BF20,BH20,BJ20)</f>
-        <v>400423.69412999984</v>
+        <v>400923.73913000047</v>
       </c>
     </row>
     <row r="21" spans="2:65" s="80" customFormat="1" ht="15" thickBot="1">
@@ -9722,7 +9740,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="81"/>
-      <c r="E21" s="421">
+      <c r="E21" s="347">
         <v>0.54500000000000004</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -9732,7 +9750,7 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72">
         <f>I20*$E$21</f>
-        <v>70061.954022509934</v>
+        <v>62431.97854751032</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72">
@@ -9747,7 +9765,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72">
         <f t="shared" si="14"/>
-        <v>21462.619995127487</v>
+        <v>29365.119995127447</v>
       </c>
       <c r="P21" s="72"/>
       <c r="Q21" s="72">
@@ -9762,7 +9780,7 @@
       <c r="T21" s="72"/>
       <c r="U21" s="275">
         <f>U20*$E$21</f>
-        <v>181234.13330084994</v>
+        <v>181506.65782585027</v>
       </c>
       <c r="W21" s="71"/>
       <c r="X21" s="72">
@@ -9826,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="74">
-        <f t="shared" ref="AW21:AY21" si="25">AW20*$E$21</f>
+        <f t="shared" ref="AW21" si="25">AW20*$E$21</f>
         <v>8175.0000000000009</v>
       </c>
       <c r="AX21" s="74">
@@ -9841,7 +9859,7 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="75">
         <f t="shared" ref="BD21" si="26">BD20*$E$21</f>
-        <v>181234.13330084994</v>
+        <v>181506.65782585027</v>
       </c>
       <c r="BE21" s="68"/>
       <c r="BF21" s="76">
@@ -9861,7 +9879,7 @@
       <c r="BL21" s="78"/>
       <c r="BM21" s="79">
         <f>SUM(BD21,BF21,BH21,BJ21)</f>
-        <v>190499.13330084994</v>
+        <v>190771.65782585027</v>
       </c>
     </row>
     <row r="22" spans="2:65" s="61" customFormat="1" ht="17" thickBot="1">
@@ -9876,7 +9894,7 @@
       <c r="H22" s="71"/>
       <c r="I22" s="86">
         <f>I21+I14</f>
-        <v>198615.99810050981</v>
+        <v>176986.06762551088</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="86">
@@ -9886,12 +9904,12 @@
       <c r="L22" s="71"/>
       <c r="M22" s="86">
         <f>M21+M14</f>
-        <v>210707.69999999998</v>
+        <v>217409.1</v>
       </c>
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>95622.874114627455</v>
+        <v>119207.97411462734</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -9906,7 +9924,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>720635.82743084978</v>
+        <v>729292.39695585077</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -9970,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="86">
-        <f t="shared" ref="AW22:AY22" si="29">AW21+AW14</f>
+        <f t="shared" ref="AW22:AX22" si="29">AW21+AW14</f>
         <v>23175</v>
       </c>
       <c r="AX22" s="87">
@@ -9985,7 +10003,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>720635.82743084978</v>
+        <v>729292.39695585077</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -10005,7 +10023,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>797784.82743084978</v>
+        <v>806441.39695585077</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -10139,7 +10157,7 @@
       <c r="C25" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="420"/>
+      <c r="D25" s="346"/>
       <c r="E25" s="93">
         <v>87.419540229885001</v>
       </c>
@@ -10327,7 +10345,7 @@
       <c r="C26" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="420"/>
+      <c r="D26" s="346"/>
       <c r="E26" s="93">
         <v>39.0402298850574</v>
       </c>
@@ -10453,7 +10471,7 @@
       <c r="C27" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="420"/>
+      <c r="D27" s="346"/>
       <c r="E27" s="93">
         <v>65.270114942528707</v>
       </c>
@@ -10579,7 +10597,7 @@
       <c r="C28" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="420"/>
+      <c r="D28" s="346"/>
       <c r="E28" s="93">
         <v>23.946360153256698</v>
       </c>
@@ -10705,7 +10723,7 @@
       <c r="C29" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="420"/>
+      <c r="D29" s="346"/>
       <c r="E29" s="93">
         <v>23.946360153256698</v>
       </c>
@@ -10831,7 +10849,7 @@
       <c r="C30" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="420"/>
+      <c r="D30" s="346"/>
       <c r="E30" s="93">
         <v>23.946360153256698</v>
       </c>
@@ -10957,7 +10975,7 @@
       <c r="C31" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="420"/>
+      <c r="D31" s="346"/>
       <c r="E31" s="93">
         <v>17.241379310344801</v>
       </c>
@@ -12711,16 +12729,16 @@
         <v>130</v>
       </c>
       <c r="E47" s="92">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="94"/>
       <c r="H47" s="115">
-        <v>1</v>
+        <v>0.25641256410259999</v>
       </c>
       <c r="I47" s="72">
         <f t="shared" si="82"/>
-        <v>19000</v>
+        <v>5000.0450000006995</v>
       </c>
       <c r="J47" s="115">
         <v>0</v>
@@ -12737,11 +12755,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="115">
-        <v>0</v>
+        <v>0.74358974358973995</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>14499.999999999929</v>
       </c>
       <c r="P47" s="115"/>
       <c r="Q47" s="72"/>
@@ -12749,11 +12767,11 @@
       <c r="S47" s="72"/>
       <c r="T47" s="98">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>1.0000023076923399</v>
       </c>
       <c r="U47" s="276">
         <f t="shared" si="75"/>
-        <v>19000</v>
+        <v>19500.045000000628</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="72"/>
@@ -12782,11 +12800,11 @@
       <c r="BA47" s="97"/>
       <c r="BC47" s="98">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>1.0000023076923399</v>
       </c>
       <c r="BD47" s="75">
         <f t="shared" si="78"/>
-        <v>19000</v>
+        <v>19500.045000000628</v>
       </c>
       <c r="BE47" s="98"/>
       <c r="BF47" s="76"/>
@@ -12797,11 +12815,11 @@
       <c r="BK47" s="61"/>
       <c r="BL47" s="78">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>1.0000023076923399</v>
       </c>
       <c r="BM47" s="79">
         <f t="shared" si="81"/>
-        <v>19000</v>
+        <v>19500.045000000628</v>
       </c>
     </row>
     <row r="48" spans="2:65">
@@ -13551,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="72">
-        <f t="shared" ref="I55:K55" si="89">$E55*H55</f>
+        <f t="shared" ref="I55" si="89">$E55*H55</f>
         <v>0</v>
       </c>
       <c r="J55" s="115">
@@ -13732,7 +13750,7 @@
       <c r="H56" s="117"/>
       <c r="I56" s="102">
         <f>SUM(I45:I55)</f>
-        <v>19000</v>
+        <v>5000.0450000006995</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="102">
@@ -13747,7 +13765,7 @@
       <c r="N56" s="117"/>
       <c r="O56" s="102">
         <f>SUM(O45:O55)</f>
-        <v>0</v>
+        <v>14499.999999999929</v>
       </c>
       <c r="P56" s="117"/>
       <c r="Q56" s="102">
@@ -13762,7 +13780,7 @@
       <c r="T56" s="118"/>
       <c r="U56" s="278">
         <f>SUM(U45:U55)</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
       <c r="V56" s="99"/>
       <c r="W56" s="117"/>
@@ -13830,7 +13848,7 @@
       <c r="BC56" s="119"/>
       <c r="BD56" s="105">
         <f>SUM(BD45:BD55)</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
       <c r="BE56" s="119"/>
       <c r="BF56" s="106">
@@ -13848,7 +13866,7 @@
       <c r="BL56" s="121"/>
       <c r="BM56" s="109">
         <f>SUM(BM45:BM55)</f>
-        <v>45000</v>
+        <v>45500.045000000624</v>
       </c>
     </row>
     <row r="57" spans="2:65" ht="14" thickBot="1">
@@ -15164,7 +15182,7 @@
         <v>179</v>
       </c>
       <c r="E69" s="92">
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="F69" s="262" t="s">
         <v>163</v>
@@ -15189,14 +15207,14 @@
       </c>
       <c r="M69" s="72">
         <f t="shared" ref="M69" si="150">$E69*L69</f>
-        <v>197082.69999999998</v>
+        <v>203784.1</v>
       </c>
       <c r="N69" s="115">
         <v>0.15</v>
       </c>
       <c r="O69" s="72">
         <f t="shared" ref="O69:O70" si="151">$E69*N69</f>
-        <v>34779.299999999996</v>
+        <v>35961.9</v>
       </c>
       <c r="P69" s="115">
         <v>0</v>
@@ -15218,7 +15236,7 @@
       </c>
       <c r="U69" s="276">
         <f>$E69*T69</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="W69" s="115">
         <v>0</v>
@@ -15313,7 +15331,7 @@
       </c>
       <c r="BD69" s="75">
         <f>$E69*BC69</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="BE69" s="98">
         <f>$AI69</f>
@@ -15340,7 +15358,7 @@
       </c>
       <c r="BM69" s="79">
         <f>$E69*BL69</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
     </row>
     <row r="70" spans="2:65">
@@ -15555,12 +15573,12 @@
       <c r="L71" s="99"/>
       <c r="M71" s="102">
         <f>SUM(M69:M70)</f>
-        <v>197082.69999999998</v>
+        <v>203784.1</v>
       </c>
       <c r="N71" s="99"/>
       <c r="O71" s="102">
         <f>SUM(O69:O70)</f>
-        <v>34779.299999999996</v>
+        <v>35961.9</v>
       </c>
       <c r="P71" s="99"/>
       <c r="Q71" s="102">
@@ -15575,7 +15593,7 @@
       <c r="T71" s="114"/>
       <c r="U71" s="278">
         <f>SUM(U69:U70)</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="V71" s="99"/>
       <c r="W71" s="99"/>
@@ -15643,7 +15661,7 @@
       <c r="BC71" s="119"/>
       <c r="BD71" s="105">
         <f>SUM(BD69:BD70)</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
       <c r="BE71" s="119"/>
       <c r="BF71" s="106">
@@ -15661,7 +15679,7 @@
       <c r="BL71" s="121"/>
       <c r="BM71" s="109">
         <f>SUM(BM69:BM70)</f>
-        <v>231862</v>
+        <v>239746</v>
       </c>
     </row>
     <row r="72" spans="2:65">
@@ -15688,19 +15706,32 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AW3:AW6"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="AL1:AU2"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="W1:AJ2"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="H1:U2"/>
     <mergeCell ref="H3:H5"/>
@@ -15717,32 +15748,19 @@
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
-    <mergeCell ref="W1:AJ2"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AL1:AU2"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BI7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -15770,7 +15788,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45:C47"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -15848,57 +15866,57 @@
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="61"/>
-      <c r="H1" s="346" t="s">
+      <c r="H1" s="365" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
-      <c r="R1" s="346"/>
-      <c r="S1" s="346"/>
-      <c r="T1" s="346"/>
-      <c r="U1" s="346"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="365"/>
       <c r="V1" s="37"/>
-      <c r="W1" s="346" t="s">
+      <c r="W1" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="346"/>
-      <c r="Y1" s="346"/>
-      <c r="Z1" s="346"/>
-      <c r="AA1" s="346"/>
-      <c r="AB1" s="346"/>
-      <c r="AC1" s="346"/>
-      <c r="AD1" s="346"/>
-      <c r="AE1" s="346"/>
-      <c r="AF1" s="346"/>
-      <c r="AG1" s="346"/>
-      <c r="AH1" s="346"/>
-      <c r="AI1" s="346"/>
-      <c r="AJ1" s="346"/>
-      <c r="AL1" s="346" t="s">
+      <c r="X1" s="365"/>
+      <c r="Y1" s="365"/>
+      <c r="Z1" s="365"/>
+      <c r="AA1" s="365"/>
+      <c r="AB1" s="365"/>
+      <c r="AC1" s="365"/>
+      <c r="AD1" s="365"/>
+      <c r="AE1" s="365"/>
+      <c r="AF1" s="365"/>
+      <c r="AG1" s="365"/>
+      <c r="AH1" s="365"/>
+      <c r="AI1" s="365"/>
+      <c r="AJ1" s="365"/>
+      <c r="AL1" s="365" t="s">
         <v>164</v>
       </c>
-      <c r="AM1" s="346"/>
-      <c r="AN1" s="346"/>
-      <c r="AO1" s="346"/>
-      <c r="AP1" s="346"/>
-      <c r="AQ1" s="346"/>
-      <c r="AR1" s="346"/>
-      <c r="AS1" s="346"/>
-      <c r="AT1" s="346"/>
-      <c r="AU1" s="346"/>
+      <c r="AM1" s="365"/>
+      <c r="AN1" s="365"/>
+      <c r="AO1" s="365"/>
+      <c r="AP1" s="365"/>
+      <c r="AQ1" s="365"/>
+      <c r="AR1" s="365"/>
+      <c r="AS1" s="365"/>
+      <c r="AT1" s="365"/>
+      <c r="AU1" s="365"/>
       <c r="AV1" s="37"/>
-      <c r="AW1" s="371" t="s">
+      <c r="AW1" s="350" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="371"/>
-      <c r="AY1" s="371"/>
+      <c r="AX1" s="350"/>
+      <c r="AY1" s="350"/>
     </row>
     <row r="2" spans="1:65" s="37" customFormat="1" ht="23">
       <c r="A2" s="34" t="s">
@@ -15913,48 +15931,48 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346"/>
-      <c r="U2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="346"/>
-      <c r="AB2" s="346"/>
-      <c r="AC2" s="346"/>
-      <c r="AD2" s="346"/>
-      <c r="AE2" s="346"/>
-      <c r="AF2" s="346"/>
-      <c r="AG2" s="346"/>
-      <c r="AH2" s="346"/>
-      <c r="AI2" s="346"/>
-      <c r="AJ2" s="346"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
+      <c r="R2" s="365"/>
+      <c r="S2" s="365"/>
+      <c r="T2" s="365"/>
+      <c r="U2" s="365"/>
+      <c r="W2" s="365"/>
+      <c r="X2" s="365"/>
+      <c r="Y2" s="365"/>
+      <c r="Z2" s="365"/>
+      <c r="AA2" s="365"/>
+      <c r="AB2" s="365"/>
+      <c r="AC2" s="365"/>
+      <c r="AD2" s="365"/>
+      <c r="AE2" s="365"/>
+      <c r="AF2" s="365"/>
+      <c r="AG2" s="365"/>
+      <c r="AH2" s="365"/>
+      <c r="AI2" s="365"/>
+      <c r="AJ2" s="365"/>
       <c r="AK2"/>
-      <c r="AL2" s="346"/>
-      <c r="AM2" s="346"/>
-      <c r="AN2" s="346"/>
-      <c r="AO2" s="346"/>
-      <c r="AP2" s="346"/>
-      <c r="AQ2" s="346"/>
-      <c r="AR2" s="346"/>
-      <c r="AS2" s="346"/>
-      <c r="AT2" s="346"/>
-      <c r="AU2" s="346"/>
-      <c r="AW2" s="371"/>
-      <c r="AX2" s="371"/>
-      <c r="AY2" s="371"/>
+      <c r="AL2" s="365"/>
+      <c r="AM2" s="365"/>
+      <c r="AN2" s="365"/>
+      <c r="AO2" s="365"/>
+      <c r="AP2" s="365"/>
+      <c r="AQ2" s="365"/>
+      <c r="AR2" s="365"/>
+      <c r="AS2" s="365"/>
+      <c r="AT2" s="365"/>
+      <c r="AU2" s="365"/>
+      <c r="AW2" s="350"/>
+      <c r="AX2" s="350"/>
+      <c r="AY2" s="350"/>
       <c r="BA2" s="43"/>
       <c r="BC2" s="44"/>
       <c r="BD2" s="45"/>
@@ -15975,128 +15993,128 @@
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="366" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="363" t="s">
+      <c r="I3" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="364" t="s">
+      <c r="J3" s="367" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="365" t="s">
+      <c r="K3" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="366" t="s">
+      <c r="L3" s="369" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="366" t="s">
+      <c r="M3" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="367" t="s">
+      <c r="N3" s="371" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="367" t="s">
+      <c r="O3" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="368" t="s">
+      <c r="P3" s="372" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="370" t="s">
+      <c r="Q3" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="375" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="361" t="s">
+      <c r="S3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="352" t="s">
+      <c r="T3" s="370" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="352" t="s">
+      <c r="U3" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="353" t="s">
+      <c r="W3" s="376" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="353" t="s">
+      <c r="X3" s="376" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="354" t="s">
+      <c r="Y3" s="377" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="355" t="s">
+      <c r="Z3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="356" t="s">
+      <c r="AA3" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="356" t="s">
+      <c r="AB3" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="357" t="s">
+      <c r="AC3" s="380" t="s">
         <v>160</v>
       </c>
-      <c r="AD3" s="357" t="s">
+      <c r="AD3" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="358" t="s">
+      <c r="AE3" s="381" t="s">
         <v>161</v>
       </c>
-      <c r="AF3" s="360" t="s">
+      <c r="AF3" s="383" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="361" t="s">
+      <c r="AG3" s="375" t="s">
         <v>162</v>
       </c>
-      <c r="AH3" s="361" t="s">
+      <c r="AH3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="352" t="s">
+      <c r="AI3" s="370" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="352" t="s">
+      <c r="AJ3" s="370" t="s">
         <v>4</v>
       </c>
       <c r="AK3"/>
-      <c r="AL3" s="347" t="s">
+      <c r="AL3" s="384" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="347" t="s">
+      <c r="AM3" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="348" t="s">
+      <c r="AN3" s="385" t="s">
         <v>51</v>
       </c>
-      <c r="AO3" s="349" t="s">
+      <c r="AO3" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="350" t="s">
+      <c r="AP3" s="387" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="350" t="s">
+      <c r="AQ3" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="351" t="s">
+      <c r="AR3" s="388" t="s">
         <v>165</v>
       </c>
-      <c r="AS3" s="351" t="s">
+      <c r="AS3" s="388" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="352" t="s">
+      <c r="AT3" s="370" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="352" t="s">
+      <c r="AU3" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="374" t="s">
+      <c r="AW3" s="353" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" s="376" t="s">
+      <c r="AX3" s="355" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="372" t="s">
+      <c r="AY3" s="351" t="s">
         <v>105</v>
       </c>
       <c r="BA3" s="43"/>
@@ -16109,8 +16127,8 @@
       <c r="BI3" s="44"/>
       <c r="BJ3" s="45"/>
       <c r="BK3" s="200"/>
-      <c r="BL3" s="378"/>
-      <c r="BM3" s="378"/>
+      <c r="BL3" s="357"/>
+      <c r="BM3" s="357"/>
     </row>
     <row r="4" spans="1:65" s="37" customFormat="1" ht="18">
       <c r="A4" s="48"/>
@@ -16118,50 +16136,50 @@
       <c r="C4" s="206"/>
       <c r="D4" s="206"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="363"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="366"/>
-      <c r="M4" s="366"/>
-      <c r="N4" s="367"/>
-      <c r="O4" s="367"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="361"/>
-      <c r="S4" s="361"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="352"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="375"/>
+      <c r="S4" s="375"/>
+      <c r="T4" s="370"/>
+      <c r="U4" s="370"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="353"/>
-      <c r="X4" s="353"/>
-      <c r="Y4" s="354"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="356"/>
-      <c r="AB4" s="356"/>
-      <c r="AC4" s="357"/>
-      <c r="AD4" s="357"/>
-      <c r="AE4" s="359"/>
-      <c r="AF4" s="360"/>
-      <c r="AG4" s="361"/>
-      <c r="AH4" s="361"/>
-      <c r="AI4" s="352"/>
-      <c r="AJ4" s="352"/>
+      <c r="W4" s="376"/>
+      <c r="X4" s="376"/>
+      <c r="Y4" s="377"/>
+      <c r="Z4" s="378"/>
+      <c r="AA4" s="379"/>
+      <c r="AB4" s="379"/>
+      <c r="AC4" s="380"/>
+      <c r="AD4" s="380"/>
+      <c r="AE4" s="382"/>
+      <c r="AF4" s="383"/>
+      <c r="AG4" s="375"/>
+      <c r="AH4" s="375"/>
+      <c r="AI4" s="370"/>
+      <c r="AJ4" s="370"/>
       <c r="AK4"/>
-      <c r="AL4" s="347"/>
-      <c r="AM4" s="347"/>
-      <c r="AN4" s="348"/>
-      <c r="AO4" s="349"/>
-      <c r="AP4" s="350"/>
-      <c r="AQ4" s="350"/>
-      <c r="AR4" s="351"/>
-      <c r="AS4" s="351"/>
-      <c r="AT4" s="352"/>
-      <c r="AU4" s="352"/>
+      <c r="AL4" s="384"/>
+      <c r="AM4" s="384"/>
+      <c r="AN4" s="385"/>
+      <c r="AO4" s="386"/>
+      <c r="AP4" s="387"/>
+      <c r="AQ4" s="387"/>
+      <c r="AR4" s="388"/>
+      <c r="AS4" s="388"/>
+      <c r="AT4" s="370"/>
+      <c r="AU4" s="370"/>
       <c r="AV4" s="36"/>
-      <c r="AW4" s="374"/>
-      <c r="AX4" s="376"/>
-      <c r="AY4" s="372"/>
+      <c r="AW4" s="353"/>
+      <c r="AX4" s="355"/>
+      <c r="AY4" s="351"/>
       <c r="BA4" s="43"/>
       <c r="BC4" s="44"/>
       <c r="BD4" s="45"/>
@@ -16176,72 +16194,72 @@
       <c r="BM4" s="69"/>
     </row>
     <row r="5" spans="1:65" s="37" customFormat="1" ht="18">
-      <c r="A5" s="362"/>
-      <c r="B5" s="362"/>
+      <c r="A5" s="364"/>
+      <c r="B5" s="364"/>
       <c r="C5" s="223"/>
       <c r="D5" s="206"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="363"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="365"/>
-      <c r="L5" s="366"/>
-      <c r="M5" s="366"/>
-      <c r="N5" s="367"/>
-      <c r="O5" s="367"/>
-      <c r="P5" s="369"/>
-      <c r="Q5" s="370"/>
-      <c r="R5" s="361"/>
-      <c r="S5" s="361"/>
-      <c r="T5" s="352"/>
-      <c r="U5" s="352"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="371"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="373"/>
+      <c r="Q5" s="374"/>
+      <c r="R5" s="375"/>
+      <c r="S5" s="375"/>
+      <c r="T5" s="370"/>
+      <c r="U5" s="370"/>
       <c r="V5" s="36"/>
-      <c r="W5" s="353"/>
-      <c r="X5" s="353"/>
-      <c r="Y5" s="354"/>
-      <c r="Z5" s="355"/>
-      <c r="AA5" s="356"/>
-      <c r="AB5" s="356"/>
-      <c r="AC5" s="357"/>
-      <c r="AD5" s="357"/>
-      <c r="AE5" s="359"/>
-      <c r="AF5" s="360"/>
-      <c r="AG5" s="361"/>
-      <c r="AH5" s="361"/>
-      <c r="AI5" s="352"/>
-      <c r="AJ5" s="352"/>
+      <c r="W5" s="376"/>
+      <c r="X5" s="376"/>
+      <c r="Y5" s="377"/>
+      <c r="Z5" s="378"/>
+      <c r="AA5" s="379"/>
+      <c r="AB5" s="379"/>
+      <c r="AC5" s="380"/>
+      <c r="AD5" s="380"/>
+      <c r="AE5" s="382"/>
+      <c r="AF5" s="383"/>
+      <c r="AG5" s="375"/>
+      <c r="AH5" s="375"/>
+      <c r="AI5" s="370"/>
+      <c r="AJ5" s="370"/>
       <c r="AK5"/>
-      <c r="AL5" s="347"/>
-      <c r="AM5" s="347"/>
-      <c r="AN5" s="348"/>
-      <c r="AO5" s="349"/>
-      <c r="AP5" s="350"/>
-      <c r="AQ5" s="350"/>
-      <c r="AR5" s="351"/>
-      <c r="AS5" s="351"/>
-      <c r="AT5" s="352"/>
-      <c r="AU5" s="352"/>
+      <c r="AL5" s="384"/>
+      <c r="AM5" s="384"/>
+      <c r="AN5" s="385"/>
+      <c r="AO5" s="386"/>
+      <c r="AP5" s="387"/>
+      <c r="AQ5" s="387"/>
+      <c r="AR5" s="388"/>
+      <c r="AS5" s="388"/>
+      <c r="AT5" s="370"/>
+      <c r="AU5" s="370"/>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="374"/>
-      <c r="AX5" s="376"/>
-      <c r="AY5" s="372"/>
+      <c r="AW5" s="353"/>
+      <c r="AX5" s="355"/>
+      <c r="AY5" s="351"/>
       <c r="BA5" s="43"/>
-      <c r="BC5" s="381" t="s">
+      <c r="BC5" s="360" t="s">
         <v>168</v>
       </c>
-      <c r="BD5" s="381"/>
-      <c r="BE5" s="382" t="s">
+      <c r="BD5" s="360"/>
+      <c r="BE5" s="361" t="s">
         <v>153</v>
       </c>
-      <c r="BF5" s="382"/>
-      <c r="BG5" s="383" t="s">
+      <c r="BF5" s="361"/>
+      <c r="BG5" s="362" t="s">
         <v>154</v>
       </c>
-      <c r="BH5" s="383"/>
-      <c r="BI5" s="384" t="s">
+      <c r="BH5" s="362"/>
+      <c r="BI5" s="363" t="s">
         <v>167</v>
       </c>
-      <c r="BJ5" s="384"/>
+      <c r="BJ5" s="363"/>
       <c r="BK5" s="200"/>
       <c r="BL5" s="202"/>
       <c r="BM5" s="69"/>
@@ -16365,29 +16383,29 @@
         <v>7</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="375"/>
-      <c r="AX6" s="377"/>
-      <c r="AY6" s="373"/>
+      <c r="AW6" s="354"/>
+      <c r="AX6" s="356"/>
+      <c r="AY6" s="352"/>
       <c r="BA6" s="43"/>
-      <c r="BC6" s="379" t="s">
+      <c r="BC6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BD6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BE6" s="379" t="s">
+      <c r="BE6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BF6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BG6" s="379" t="s">
+      <c r="BG6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BH6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BI6" s="379" t="s">
+      <c r="BI6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BJ6" s="51" t="s">
@@ -16541,19 +16559,19 @@
         <v>9</v>
       </c>
       <c r="BA7" s="59"/>
-      <c r="BC7" s="380"/>
+      <c r="BC7" s="359"/>
       <c r="BD7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BE7" s="380"/>
+      <c r="BE7" s="359"/>
       <c r="BF7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BG7" s="380"/>
+      <c r="BG7" s="359"/>
       <c r="BH7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BI7" s="380"/>
+      <c r="BI7" s="359"/>
       <c r="BJ7" s="60" t="s">
         <v>7</v>
       </c>
@@ -16846,7 +16864,7 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>I56</f>
-        <v>6000</v>
+        <v>4999.9999999800002</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72">
@@ -16861,7 +16879,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="72">
         <f>O56</f>
-        <v>0</v>
+        <v>999.99999999959994</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -16876,7 +16894,7 @@
       <c r="T10" s="73"/>
       <c r="U10" s="275">
         <f>U56</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
       <c r="W10" s="71"/>
       <c r="X10" s="72">
@@ -16946,7 +16964,7 @@
       <c r="BC10" s="68"/>
       <c r="BD10" s="75">
         <f>BD56</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
       <c r="BE10" s="68"/>
       <c r="BF10" s="76">
@@ -16966,7 +16984,7 @@
       <c r="BL10" s="78"/>
       <c r="BM10" s="79">
         <f>BM56</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
     </row>
     <row r="11" spans="1:65" s="61" customFormat="1" ht="14">
@@ -17261,12 +17279,12 @@
       <c r="L13" s="71"/>
       <c r="M13" s="72">
         <f>M71</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N13" s="71"/>
       <c r="O13" s="72">
         <f>O71</f>
-        <v>28854.899999999998</v>
+        <v>28854.6</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -17281,7 +17299,7 @@
       <c r="T13" s="73"/>
       <c r="U13" s="275">
         <f>U71</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="W13" s="71"/>
       <c r="X13" s="72">
@@ -17353,7 +17371,7 @@
       <c r="BC13" s="68"/>
       <c r="BD13" s="75">
         <f>BD71</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="BE13" s="68"/>
       <c r="BF13" s="76">
@@ -17373,7 +17391,7 @@
       <c r="BL13" s="78"/>
       <c r="BM13" s="79">
         <f>BM71</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
     </row>
     <row r="14" spans="1:65" s="80" customFormat="1" ht="14">
@@ -17388,7 +17406,7 @@
       <c r="H14" s="71"/>
       <c r="I14" s="72">
         <f>SUM(I9:I13)</f>
-        <v>103649.5715377999</v>
+        <v>102649.57153777991</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72">
@@ -17398,12 +17416,12 @@
       <c r="L14" s="71"/>
       <c r="M14" s="72">
         <f>SUM(M9:M13)</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>59853.393425549977</v>
+        <v>60853.093425549581</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -17418,7 +17436,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>431022.62283699989</v>
+        <v>431020.62283697946</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -17497,7 +17515,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>431022.62283699989</v>
+        <v>431020.62283697946</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -17517,7 +17535,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>480640.62283699989</v>
+        <v>480638.62283697946</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -17767,12 +17785,12 @@
       <c r="L18" s="244"/>
       <c r="M18" s="260">
         <f>M14</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N18" s="244"/>
       <c r="O18" s="260">
         <f>O13</f>
-        <v>28854.899999999998</v>
+        <v>28854.6</v>
       </c>
       <c r="P18" s="244"/>
       <c r="Q18" s="260"/>
@@ -17781,7 +17799,7 @@
       <c r="T18" s="73"/>
       <c r="U18" s="275">
         <f>(SUM(I18,K18,M18,O18,Q18,S18))</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="W18" s="243"/>
       <c r="X18" s="260"/>
@@ -17821,7 +17839,7 @@
       <c r="BC18" s="68"/>
       <c r="BD18" s="75">
         <f>$U18</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="BE18" s="68"/>
       <c r="BF18" s="76">
@@ -17838,7 +17856,7 @@
       <c r="BL18" s="78"/>
       <c r="BM18" s="79">
         <f>SUM(BD18,BF18,BH18)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
     </row>
     <row r="19" spans="2:65" s="80" customFormat="1" ht="14">
@@ -17863,12 +17881,12 @@
       <c r="L19" s="244"/>
       <c r="M19" s="244">
         <f>SUM(M16:M18)</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N19" s="244"/>
       <c r="O19" s="244">
         <f>SUM(O16:O18)</f>
-        <v>28854.899999999998</v>
+        <v>28854.6</v>
       </c>
       <c r="P19" s="244"/>
       <c r="Q19" s="244">
@@ -17883,7 +17901,7 @@
       <c r="T19" s="73"/>
       <c r="U19" s="275">
         <f>SUM(U16:U18)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="W19" s="243"/>
       <c r="X19" s="244">
@@ -17953,7 +17971,7 @@
       <c r="BC19" s="68"/>
       <c r="BD19" s="75">
         <f>SUM(BD16:BD18)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="BE19" s="68"/>
       <c r="BF19" s="76">
@@ -17970,7 +17988,7 @@
       <c r="BL19" s="78"/>
       <c r="BM19" s="79">
         <f>SUM(BD19,BF19,BH19)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
     </row>
     <row r="20" spans="2:65" s="80" customFormat="1" ht="14">
@@ -17985,7 +18003,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f>I14-I19</f>
-        <v>103649.5715377999</v>
+        <v>102649.57153777991</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72">
@@ -18000,7 +18018,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72">
         <f t="shared" si="1"/>
-        <v>30998.493425549979</v>
+        <v>31998.493425549583</v>
       </c>
       <c r="P20" s="72"/>
       <c r="Q20" s="72">
@@ -18015,7 +18033,7 @@
       <c r="T20" s="72"/>
       <c r="U20" s="275">
         <f>U14-U19</f>
-        <v>238656.62283699989</v>
+        <v>238656.62283697946</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="72">
@@ -18094,7 +18112,7 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="75">
         <f>BD14-BD19</f>
-        <v>238656.62283699989</v>
+        <v>238656.62283697946</v>
       </c>
       <c r="BE20" s="68"/>
       <c r="BF20" s="76">
@@ -18114,7 +18132,7 @@
       <c r="BL20" s="78"/>
       <c r="BM20" s="79">
         <f>SUM(BD20,BF20,BH20,BJ20)</f>
-        <v>288274.62283699989</v>
+        <v>288274.62283697946</v>
       </c>
     </row>
     <row r="21" spans="2:65" s="80" customFormat="1" ht="15" thickBot="1">
@@ -18123,7 +18141,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="81"/>
-      <c r="E21" s="421">
+      <c r="E21" s="347">
         <v>0.54500000000000004</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -18133,7 +18151,7 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72">
         <f>I20*$E$21</f>
-        <v>56489.016488100948</v>
+        <v>55944.016488090056</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72">
@@ -18148,7 +18166,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72">
         <f t="shared" si="14"/>
-        <v>16894.178916924739</v>
+        <v>17439.178916924524</v>
       </c>
       <c r="P21" s="72"/>
       <c r="Q21" s="72">
@@ -18163,7 +18181,7 @@
       <c r="T21" s="72"/>
       <c r="U21" s="275">
         <f>U20*$E$21</f>
-        <v>130067.85944616495</v>
+        <v>130067.85944615382</v>
       </c>
       <c r="W21" s="71"/>
       <c r="X21" s="72">
@@ -18227,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="74">
-        <f t="shared" ref="AW21:AY21" si="25">AW20*$E$21</f>
+        <f t="shared" ref="AW21" si="25">AW20*$E$21</f>
         <v>6540.0000000000009</v>
       </c>
       <c r="AX21" s="74">
@@ -18242,7 +18260,7 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="75">
         <f t="shared" ref="BD21" si="26">BD20*$E$21</f>
-        <v>130067.85944616495</v>
+        <v>130067.85944615382</v>
       </c>
       <c r="BE21" s="68"/>
       <c r="BF21" s="76">
@@ -18262,7 +18280,7 @@
       <c r="BL21" s="78"/>
       <c r="BM21" s="79">
         <f>SUM(BD21,BF21,BH21,BJ21)</f>
-        <v>137697.85944616495</v>
+        <v>137697.85944615383</v>
       </c>
     </row>
     <row r="22" spans="2:65" s="61" customFormat="1" ht="17" thickBot="1">
@@ -18277,7 +18295,7 @@
       <c r="H22" s="71"/>
       <c r="I22" s="86">
         <f>I21+I14</f>
-        <v>160138.58802590086</v>
+        <v>158593.58802586998</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="86">
@@ -18287,12 +18305,12 @@
       <c r="L22" s="71"/>
       <c r="M22" s="86">
         <f>M21+M14</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>76747.572342474712</v>
+        <v>78292.272342474113</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -18307,7 +18325,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>561090.48228316486</v>
+        <v>561088.48228313331</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -18371,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="86">
-        <f t="shared" ref="AW22:AY22" si="29">AW21+AW14</f>
+        <f t="shared" ref="AW22:AX22" si="29">AW21+AW14</f>
         <v>18540</v>
       </c>
       <c r="AX22" s="87">
@@ -18386,7 +18404,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>561090.48228316486</v>
+        <v>561088.48228313331</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -18406,7 +18424,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>618338.48228316486</v>
+        <v>618336.48228313331</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -21094,11 +21112,11 @@
       <c r="F47" s="93"/>
       <c r="G47" s="94"/>
       <c r="H47" s="115">
-        <v>1</v>
+        <v>0.83333333333000004</v>
       </c>
       <c r="I47" s="72">
         <f t="shared" si="78"/>
-        <v>6000</v>
+        <v>4999.9999999800002</v>
       </c>
       <c r="J47" s="115">
         <v>0</v>
@@ -21115,11 +21133,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="115">
-        <v>0</v>
+        <v>0.16666666666659999</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>999.99999999959994</v>
       </c>
       <c r="P47" s="115"/>
       <c r="Q47" s="72"/>
@@ -21127,11 +21145,11 @@
       <c r="S47" s="72"/>
       <c r="T47" s="98">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0.99999999999660005</v>
       </c>
       <c r="U47" s="276">
         <f t="shared" si="71"/>
-        <v>6000</v>
+        <v>5999.9999999796</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="72"/>
@@ -21160,11 +21178,11 @@
       <c r="BA47" s="97"/>
       <c r="BC47" s="98">
         <f t="shared" si="83"/>
-        <v>1</v>
+        <v>0.99999999999660005</v>
       </c>
       <c r="BD47" s="75">
         <f t="shared" si="74"/>
-        <v>6000</v>
+        <v>5999.9999999796</v>
       </c>
       <c r="BE47" s="98"/>
       <c r="BF47" s="76"/>
@@ -21175,11 +21193,11 @@
       <c r="BK47" s="61"/>
       <c r="BL47" s="78">
         <f t="shared" si="84"/>
-        <v>1</v>
+        <v>0.99999999999660005</v>
       </c>
       <c r="BM47" s="79">
         <f t="shared" si="77"/>
-        <v>6000</v>
+        <v>5999.9999999796</v>
       </c>
     </row>
     <row r="48" spans="2:65">
@@ -22110,7 +22128,7 @@
       <c r="H56" s="117"/>
       <c r="I56" s="102">
         <f>SUM(I45:I55)</f>
-        <v>6000</v>
+        <v>4999.9999999800002</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="102">
@@ -22125,7 +22143,7 @@
       <c r="N56" s="117"/>
       <c r="O56" s="102">
         <f>SUM(O45:O55)</f>
-        <v>0</v>
+        <v>999.99999999959994</v>
       </c>
       <c r="P56" s="117"/>
       <c r="Q56" s="102">
@@ -22140,7 +22158,7 @@
       <c r="T56" s="118"/>
       <c r="U56" s="278">
         <f>SUM(U45:U55)</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
       <c r="V56" s="99"/>
       <c r="W56" s="117"/>
@@ -22208,7 +22226,7 @@
       <c r="BC56" s="119"/>
       <c r="BD56" s="105">
         <f>SUM(BD45:BD55)</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
       <c r="BE56" s="119"/>
       <c r="BF56" s="106">
@@ -22226,7 +22244,7 @@
       <c r="BL56" s="121"/>
       <c r="BM56" s="109">
         <f>SUM(BM45:BM55)</f>
-        <v>32000</v>
+        <v>31999.999999979598</v>
       </c>
     </row>
     <row r="57" spans="2:65" ht="14" thickBot="1">
@@ -23542,7 +23560,7 @@
         <v>179</v>
       </c>
       <c r="E69" s="92">
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="F69" s="262" t="s">
         <v>163</v>
@@ -23567,14 +23585,14 @@
       </c>
       <c r="M69" s="72">
         <f t="shared" ref="M69:M70" si="143">$E69*L69</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N69" s="115">
         <v>0.15</v>
       </c>
       <c r="O69" s="72">
         <f t="shared" ref="O69:O70" si="144">$E69*N69</f>
-        <v>28854.899999999998</v>
+        <v>28854.6</v>
       </c>
       <c r="P69" s="115">
         <v>0</v>
@@ -23596,7 +23614,7 @@
       </c>
       <c r="U69" s="276">
         <f>$E69*T69</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="W69" s="115">
         <v>0</v>
@@ -23691,7 +23709,7 @@
       </c>
       <c r="BD69" s="75">
         <f>$E69*BC69</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="BE69" s="98">
         <f>$AI69</f>
@@ -23718,7 +23736,7 @@
       </c>
       <c r="BM69" s="79">
         <f>$E69*BL69</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
     </row>
     <row r="70" spans="2:65">
@@ -23933,12 +23951,12 @@
       <c r="L71" s="99"/>
       <c r="M71" s="102">
         <f>SUM(M69:M70)</f>
-        <v>163511.1</v>
+        <v>163509.4</v>
       </c>
       <c r="N71" s="99"/>
       <c r="O71" s="102">
         <f>SUM(O69:O70)</f>
-        <v>28854.899999999998</v>
+        <v>28854.6</v>
       </c>
       <c r="P71" s="99"/>
       <c r="Q71" s="102">
@@ -23953,7 +23971,7 @@
       <c r="T71" s="114"/>
       <c r="U71" s="278">
         <f>SUM(U69:U70)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="V71" s="99"/>
       <c r="W71" s="99"/>
@@ -24021,7 +24039,7 @@
       <c r="BC71" s="119"/>
       <c r="BD71" s="105">
         <f>SUM(BD69:BD70)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
       <c r="BE71" s="119"/>
       <c r="BF71" s="106">
@@ -24039,7 +24057,7 @@
       <c r="BL71" s="121"/>
       <c r="BM71" s="109">
         <f>SUM(BM69:BM70)</f>
-        <v>192366</v>
+        <v>192364</v>
       </c>
     </row>
     <row r="72" spans="2:65">
@@ -24066,6 +24084,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="H1:U2"/>
     <mergeCell ref="W1:AJ2"/>
@@ -24082,45 +24139,6 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="AW3:AW6"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -24147,7 +24165,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -24225,57 +24243,57 @@
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="61"/>
-      <c r="H1" s="346" t="s">
+      <c r="H1" s="365" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
-      <c r="R1" s="346"/>
-      <c r="S1" s="346"/>
-      <c r="T1" s="346"/>
-      <c r="U1" s="346"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="365"/>
       <c r="V1" s="37"/>
-      <c r="W1" s="346" t="s">
+      <c r="W1" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="346"/>
-      <c r="Y1" s="346"/>
-      <c r="Z1" s="346"/>
-      <c r="AA1" s="346"/>
-      <c r="AB1" s="346"/>
-      <c r="AC1" s="346"/>
-      <c r="AD1" s="346"/>
-      <c r="AE1" s="346"/>
-      <c r="AF1" s="346"/>
-      <c r="AG1" s="346"/>
-      <c r="AH1" s="346"/>
-      <c r="AI1" s="346"/>
-      <c r="AJ1" s="346"/>
-      <c r="AL1" s="346" t="s">
+      <c r="X1" s="365"/>
+      <c r="Y1" s="365"/>
+      <c r="Z1" s="365"/>
+      <c r="AA1" s="365"/>
+      <c r="AB1" s="365"/>
+      <c r="AC1" s="365"/>
+      <c r="AD1" s="365"/>
+      <c r="AE1" s="365"/>
+      <c r="AF1" s="365"/>
+      <c r="AG1" s="365"/>
+      <c r="AH1" s="365"/>
+      <c r="AI1" s="365"/>
+      <c r="AJ1" s="365"/>
+      <c r="AL1" s="365" t="s">
         <v>164</v>
       </c>
-      <c r="AM1" s="346"/>
-      <c r="AN1" s="346"/>
-      <c r="AO1" s="346"/>
-      <c r="AP1" s="346"/>
-      <c r="AQ1" s="346"/>
-      <c r="AR1" s="346"/>
-      <c r="AS1" s="346"/>
-      <c r="AT1" s="346"/>
-      <c r="AU1" s="346"/>
+      <c r="AM1" s="365"/>
+      <c r="AN1" s="365"/>
+      <c r="AO1" s="365"/>
+      <c r="AP1" s="365"/>
+      <c r="AQ1" s="365"/>
+      <c r="AR1" s="365"/>
+      <c r="AS1" s="365"/>
+      <c r="AT1" s="365"/>
+      <c r="AU1" s="365"/>
       <c r="AV1" s="37"/>
-      <c r="AW1" s="371" t="s">
+      <c r="AW1" s="350" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="371"/>
-      <c r="AY1" s="371"/>
+      <c r="AX1" s="350"/>
+      <c r="AY1" s="350"/>
     </row>
     <row r="2" spans="1:65" s="37" customFormat="1" ht="23">
       <c r="A2" s="34" t="s">
@@ -24290,48 +24308,48 @@
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346"/>
-      <c r="U2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="346"/>
-      <c r="AB2" s="346"/>
-      <c r="AC2" s="346"/>
-      <c r="AD2" s="346"/>
-      <c r="AE2" s="346"/>
-      <c r="AF2" s="346"/>
-      <c r="AG2" s="346"/>
-      <c r="AH2" s="346"/>
-      <c r="AI2" s="346"/>
-      <c r="AJ2" s="346"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
+      <c r="R2" s="365"/>
+      <c r="S2" s="365"/>
+      <c r="T2" s="365"/>
+      <c r="U2" s="365"/>
+      <c r="W2" s="365"/>
+      <c r="X2" s="365"/>
+      <c r="Y2" s="365"/>
+      <c r="Z2" s="365"/>
+      <c r="AA2" s="365"/>
+      <c r="AB2" s="365"/>
+      <c r="AC2" s="365"/>
+      <c r="AD2" s="365"/>
+      <c r="AE2" s="365"/>
+      <c r="AF2" s="365"/>
+      <c r="AG2" s="365"/>
+      <c r="AH2" s="365"/>
+      <c r="AI2" s="365"/>
+      <c r="AJ2" s="365"/>
       <c r="AK2"/>
-      <c r="AL2" s="346"/>
-      <c r="AM2" s="346"/>
-      <c r="AN2" s="346"/>
-      <c r="AO2" s="346"/>
-      <c r="AP2" s="346"/>
-      <c r="AQ2" s="346"/>
-      <c r="AR2" s="346"/>
-      <c r="AS2" s="346"/>
-      <c r="AT2" s="346"/>
-      <c r="AU2" s="346"/>
-      <c r="AW2" s="371"/>
-      <c r="AX2" s="371"/>
-      <c r="AY2" s="371"/>
+      <c r="AL2" s="365"/>
+      <c r="AM2" s="365"/>
+      <c r="AN2" s="365"/>
+      <c r="AO2" s="365"/>
+      <c r="AP2" s="365"/>
+      <c r="AQ2" s="365"/>
+      <c r="AR2" s="365"/>
+      <c r="AS2" s="365"/>
+      <c r="AT2" s="365"/>
+      <c r="AU2" s="365"/>
+      <c r="AW2" s="350"/>
+      <c r="AX2" s="350"/>
+      <c r="AY2" s="350"/>
       <c r="BA2" s="43"/>
       <c r="BC2" s="44"/>
       <c r="BD2" s="45"/>
@@ -24352,128 +24370,128 @@
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="366" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="363" t="s">
+      <c r="I3" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="364" t="s">
+      <c r="J3" s="367" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="365" t="s">
+      <c r="K3" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="366" t="s">
+      <c r="L3" s="369" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="366" t="s">
+      <c r="M3" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="367" t="s">
+      <c r="N3" s="371" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="367" t="s">
+      <c r="O3" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="368" t="s">
+      <c r="P3" s="372" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="370" t="s">
+      <c r="Q3" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="375" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="361" t="s">
+      <c r="S3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="352" t="s">
+      <c r="T3" s="370" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="352" t="s">
+      <c r="U3" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="353" t="s">
+      <c r="W3" s="376" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="353" t="s">
+      <c r="X3" s="376" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="354" t="s">
+      <c r="Y3" s="377" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="355" t="s">
+      <c r="Z3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="356" t="s">
+      <c r="AA3" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="356" t="s">
+      <c r="AB3" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="357" t="s">
+      <c r="AC3" s="380" t="s">
         <v>160</v>
       </c>
-      <c r="AD3" s="357" t="s">
+      <c r="AD3" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="358" t="s">
+      <c r="AE3" s="381" t="s">
         <v>161</v>
       </c>
-      <c r="AF3" s="360" t="s">
+      <c r="AF3" s="383" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="361" t="s">
+      <c r="AG3" s="375" t="s">
         <v>162</v>
       </c>
-      <c r="AH3" s="361" t="s">
+      <c r="AH3" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="352" t="s">
+      <c r="AI3" s="370" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="352" t="s">
+      <c r="AJ3" s="370" t="s">
         <v>4</v>
       </c>
       <c r="AK3"/>
-      <c r="AL3" s="347" t="s">
+      <c r="AL3" s="384" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="347" t="s">
+      <c r="AM3" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="348" t="s">
+      <c r="AN3" s="385" t="s">
         <v>51</v>
       </c>
-      <c r="AO3" s="349" t="s">
+      <c r="AO3" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="350" t="s">
+      <c r="AP3" s="387" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="350" t="s">
+      <c r="AQ3" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="351" t="s">
+      <c r="AR3" s="388" t="s">
         <v>165</v>
       </c>
-      <c r="AS3" s="351" t="s">
+      <c r="AS3" s="388" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="352" t="s">
+      <c r="AT3" s="370" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="352" t="s">
+      <c r="AU3" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="374" t="s">
+      <c r="AW3" s="353" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" s="376" t="s">
+      <c r="AX3" s="355" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="372" t="s">
+      <c r="AY3" s="351" t="s">
         <v>105</v>
       </c>
       <c r="BA3" s="43"/>
@@ -24486,8 +24504,8 @@
       <c r="BI3" s="44"/>
       <c r="BJ3" s="45"/>
       <c r="BK3" s="200"/>
-      <c r="BL3" s="378"/>
-      <c r="BM3" s="378"/>
+      <c r="BL3" s="357"/>
+      <c r="BM3" s="357"/>
     </row>
     <row r="4" spans="1:65" s="37" customFormat="1" ht="18">
       <c r="A4" s="48"/>
@@ -24495,50 +24513,50 @@
       <c r="C4" s="206"/>
       <c r="D4" s="206"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="363"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="366"/>
-      <c r="M4" s="366"/>
-      <c r="N4" s="367"/>
-      <c r="O4" s="367"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="361"/>
-      <c r="S4" s="361"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="352"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="375"/>
+      <c r="S4" s="375"/>
+      <c r="T4" s="370"/>
+      <c r="U4" s="370"/>
       <c r="V4" s="36"/>
-      <c r="W4" s="353"/>
-      <c r="X4" s="353"/>
-      <c r="Y4" s="354"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="356"/>
-      <c r="AB4" s="356"/>
-      <c r="AC4" s="357"/>
-      <c r="AD4" s="357"/>
-      <c r="AE4" s="359"/>
-      <c r="AF4" s="360"/>
-      <c r="AG4" s="361"/>
-      <c r="AH4" s="361"/>
-      <c r="AI4" s="352"/>
-      <c r="AJ4" s="352"/>
+      <c r="W4" s="376"/>
+      <c r="X4" s="376"/>
+      <c r="Y4" s="377"/>
+      <c r="Z4" s="378"/>
+      <c r="AA4" s="379"/>
+      <c r="AB4" s="379"/>
+      <c r="AC4" s="380"/>
+      <c r="AD4" s="380"/>
+      <c r="AE4" s="382"/>
+      <c r="AF4" s="383"/>
+      <c r="AG4" s="375"/>
+      <c r="AH4" s="375"/>
+      <c r="AI4" s="370"/>
+      <c r="AJ4" s="370"/>
       <c r="AK4"/>
-      <c r="AL4" s="347"/>
-      <c r="AM4" s="347"/>
-      <c r="AN4" s="348"/>
-      <c r="AO4" s="349"/>
-      <c r="AP4" s="350"/>
-      <c r="AQ4" s="350"/>
-      <c r="AR4" s="351"/>
-      <c r="AS4" s="351"/>
-      <c r="AT4" s="352"/>
-      <c r="AU4" s="352"/>
+      <c r="AL4" s="384"/>
+      <c r="AM4" s="384"/>
+      <c r="AN4" s="385"/>
+      <c r="AO4" s="386"/>
+      <c r="AP4" s="387"/>
+      <c r="AQ4" s="387"/>
+      <c r="AR4" s="388"/>
+      <c r="AS4" s="388"/>
+      <c r="AT4" s="370"/>
+      <c r="AU4" s="370"/>
       <c r="AV4" s="36"/>
-      <c r="AW4" s="374"/>
-      <c r="AX4" s="376"/>
-      <c r="AY4" s="372"/>
+      <c r="AW4" s="353"/>
+      <c r="AX4" s="355"/>
+      <c r="AY4" s="351"/>
       <c r="BA4" s="43"/>
       <c r="BC4" s="44"/>
       <c r="BD4" s="45"/>
@@ -24553,72 +24571,72 @@
       <c r="BM4" s="69"/>
     </row>
     <row r="5" spans="1:65" s="37" customFormat="1" ht="18">
-      <c r="A5" s="362"/>
-      <c r="B5" s="362"/>
+      <c r="A5" s="364"/>
+      <c r="B5" s="364"/>
       <c r="C5" s="223"/>
       <c r="D5" s="206"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="363"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="365"/>
-      <c r="L5" s="366"/>
-      <c r="M5" s="366"/>
-      <c r="N5" s="367"/>
-      <c r="O5" s="367"/>
-      <c r="P5" s="369"/>
-      <c r="Q5" s="370"/>
-      <c r="R5" s="361"/>
-      <c r="S5" s="361"/>
-      <c r="T5" s="352"/>
-      <c r="U5" s="352"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="371"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="373"/>
+      <c r="Q5" s="374"/>
+      <c r="R5" s="375"/>
+      <c r="S5" s="375"/>
+      <c r="T5" s="370"/>
+      <c r="U5" s="370"/>
       <c r="V5" s="36"/>
-      <c r="W5" s="353"/>
-      <c r="X5" s="353"/>
-      <c r="Y5" s="354"/>
-      <c r="Z5" s="355"/>
-      <c r="AA5" s="356"/>
-      <c r="AB5" s="356"/>
-      <c r="AC5" s="357"/>
-      <c r="AD5" s="357"/>
-      <c r="AE5" s="359"/>
-      <c r="AF5" s="360"/>
-      <c r="AG5" s="361"/>
-      <c r="AH5" s="361"/>
-      <c r="AI5" s="352"/>
-      <c r="AJ5" s="352"/>
+      <c r="W5" s="376"/>
+      <c r="X5" s="376"/>
+      <c r="Y5" s="377"/>
+      <c r="Z5" s="378"/>
+      <c r="AA5" s="379"/>
+      <c r="AB5" s="379"/>
+      <c r="AC5" s="380"/>
+      <c r="AD5" s="380"/>
+      <c r="AE5" s="382"/>
+      <c r="AF5" s="383"/>
+      <c r="AG5" s="375"/>
+      <c r="AH5" s="375"/>
+      <c r="AI5" s="370"/>
+      <c r="AJ5" s="370"/>
       <c r="AK5"/>
-      <c r="AL5" s="347"/>
-      <c r="AM5" s="347"/>
-      <c r="AN5" s="348"/>
-      <c r="AO5" s="349"/>
-      <c r="AP5" s="350"/>
-      <c r="AQ5" s="350"/>
-      <c r="AR5" s="351"/>
-      <c r="AS5" s="351"/>
-      <c r="AT5" s="352"/>
-      <c r="AU5" s="352"/>
+      <c r="AL5" s="384"/>
+      <c r="AM5" s="384"/>
+      <c r="AN5" s="385"/>
+      <c r="AO5" s="386"/>
+      <c r="AP5" s="387"/>
+      <c r="AQ5" s="387"/>
+      <c r="AR5" s="388"/>
+      <c r="AS5" s="388"/>
+      <c r="AT5" s="370"/>
+      <c r="AU5" s="370"/>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="374"/>
-      <c r="AX5" s="376"/>
-      <c r="AY5" s="372"/>
+      <c r="AW5" s="353"/>
+      <c r="AX5" s="355"/>
+      <c r="AY5" s="351"/>
       <c r="BA5" s="43"/>
-      <c r="BC5" s="381" t="s">
+      <c r="BC5" s="360" t="s">
         <v>168</v>
       </c>
-      <c r="BD5" s="381"/>
-      <c r="BE5" s="382" t="s">
+      <c r="BD5" s="360"/>
+      <c r="BE5" s="361" t="s">
         <v>153</v>
       </c>
-      <c r="BF5" s="382"/>
-      <c r="BG5" s="383" t="s">
+      <c r="BF5" s="361"/>
+      <c r="BG5" s="362" t="s">
         <v>154</v>
       </c>
-      <c r="BH5" s="383"/>
-      <c r="BI5" s="384" t="s">
+      <c r="BH5" s="362"/>
+      <c r="BI5" s="363" t="s">
         <v>167</v>
       </c>
-      <c r="BJ5" s="384"/>
+      <c r="BJ5" s="363"/>
       <c r="BK5" s="200"/>
       <c r="BL5" s="202"/>
       <c r="BM5" s="69"/>
@@ -24742,29 +24760,29 @@
         <v>7</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="375"/>
-      <c r="AX6" s="377"/>
-      <c r="AY6" s="373"/>
+      <c r="AW6" s="354"/>
+      <c r="AX6" s="356"/>
+      <c r="AY6" s="352"/>
       <c r="BA6" s="43"/>
-      <c r="BC6" s="379" t="s">
+      <c r="BC6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BD6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BE6" s="379" t="s">
+      <c r="BE6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BF6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BG6" s="379" t="s">
+      <c r="BG6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BH6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BI6" s="379" t="s">
+      <c r="BI6" s="358" t="s">
         <v>166</v>
       </c>
       <c r="BJ6" s="51" t="s">
@@ -24918,19 +24936,19 @@
         <v>9</v>
       </c>
       <c r="BA7" s="59"/>
-      <c r="BC7" s="380"/>
+      <c r="BC7" s="359"/>
       <c r="BD7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BE7" s="380"/>
+      <c r="BE7" s="359"/>
       <c r="BF7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BG7" s="380"/>
+      <c r="BG7" s="359"/>
       <c r="BH7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="BI7" s="380"/>
+      <c r="BI7" s="359"/>
       <c r="BJ7" s="60" t="s">
         <v>7</v>
       </c>
@@ -25638,12 +25656,12 @@
       <c r="L13" s="71"/>
       <c r="M13" s="72">
         <f>M71</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N13" s="71"/>
       <c r="O13" s="72">
         <f>O71</f>
-        <v>29864.699999999997</v>
+        <v>29864.25</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -25658,7 +25676,7 @@
       <c r="T13" s="73"/>
       <c r="U13" s="275">
         <f>U71</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="W13" s="71"/>
       <c r="X13" s="72">
@@ -25730,7 +25748,7 @@
       <c r="BC13" s="68"/>
       <c r="BD13" s="75">
         <f>BD71</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="BE13" s="68"/>
       <c r="BF13" s="76">
@@ -25750,7 +25768,7 @@
       <c r="BL13" s="78"/>
       <c r="BM13" s="79">
         <f>BM71</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="14" spans="1:65" s="80" customFormat="1" ht="14">
@@ -25775,12 +25793,12 @@
       <c r="L14" s="71"/>
       <c r="M14" s="72">
         <f>SUM(M9:M13)</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>61793.148228316481</v>
+        <v>61792.698228316483</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -25795,7 +25813,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>443954.32152210991</v>
+        <v>443951.32152210991</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -25874,7 +25892,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>443954.32152210991</v>
+        <v>443951.32152210991</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -25894,7 +25912,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>495353.32152210991</v>
+        <v>495350.32152210991</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -26144,12 +26162,12 @@
       <c r="L18" s="244"/>
       <c r="M18" s="260">
         <f>M13</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N18" s="244"/>
       <c r="O18" s="260">
         <f>O13</f>
-        <v>29864.699999999997</v>
+        <v>29864.25</v>
       </c>
       <c r="P18" s="244"/>
       <c r="Q18" s="260"/>
@@ -26158,7 +26176,7 @@
       <c r="T18" s="73"/>
       <c r="U18" s="275">
         <f>(SUM(I18,K18,M18,O18,Q18,S18))</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="W18" s="243"/>
       <c r="X18" s="260"/>
@@ -26198,7 +26216,7 @@
       <c r="BC18" s="68"/>
       <c r="BD18" s="75">
         <f>$U18</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="BE18" s="68"/>
       <c r="BF18" s="76">
@@ -26215,7 +26233,7 @@
       <c r="BL18" s="78"/>
       <c r="BM18" s="79">
         <f>SUM(BD18,BF18,BH18)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="19" spans="2:65" s="80" customFormat="1" ht="14">
@@ -26240,12 +26258,12 @@
       <c r="L19" s="244"/>
       <c r="M19" s="244">
         <f>SUM(M16:M18)</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N19" s="244"/>
       <c r="O19" s="244">
         <f>SUM(O16:O18)</f>
-        <v>29864.699999999997</v>
+        <v>29864.25</v>
       </c>
       <c r="P19" s="244"/>
       <c r="Q19" s="244">
@@ -26260,7 +26278,7 @@
       <c r="T19" s="73"/>
       <c r="U19" s="275">
         <f>SUM(U16:U18)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="W19" s="243"/>
       <c r="X19" s="244">
@@ -26330,7 +26348,7 @@
       <c r="BC19" s="68"/>
       <c r="BD19" s="75">
         <f>SUM(BD16:BD18)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="BE19" s="68"/>
       <c r="BF19" s="76">
@@ -26347,7 +26365,7 @@
       <c r="BL19" s="78"/>
       <c r="BM19" s="79">
         <f>SUM(BD19,BF19,BH19)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="20" spans="2:65" s="80" customFormat="1" ht="14">
@@ -26500,7 +26518,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="81"/>
-      <c r="E21" s="421">
+      <c r="E21" s="347">
         <v>0.54500000000000004</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -26604,7 +26622,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="74">
-        <f t="shared" ref="AW21:AY21" si="25">AW20*$E$21</f>
+        <f t="shared" ref="AW21:AX21" si="25">AW20*$E$21</f>
         <v>6540.0000000000009</v>
       </c>
       <c r="AX21" s="74">
@@ -26664,12 +26682,12 @@
       <c r="L22" s="71"/>
       <c r="M22" s="86">
         <f>M21+M14</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>79194.152512748959</v>
+        <v>79193.702512748976</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -26684,7 +26702,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>577401.0167516598</v>
+        <v>577398.0167516598</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -26748,7 +26766,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="86">
-        <f t="shared" ref="AW22:AY22" si="29">AW21+AW14</f>
+        <f t="shared" ref="AW22:AX22" si="29">AW21+AW14</f>
         <v>18540</v>
       </c>
       <c r="AX22" s="87">
@@ -26763,7 +26781,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>577401.0167516598</v>
+        <v>577398.0167516598</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -26783,7 +26801,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>636430.0167516598</v>
+        <v>636427.0167516598</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -32027,7 +32045,7 @@
         <v>179</v>
       </c>
       <c r="E69" s="92">
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="F69" s="262" t="s">
         <v>163</v>
@@ -32052,14 +32070,14 @@
       </c>
       <c r="M69" s="72">
         <f t="shared" ref="M69:M70" si="142">$E69*L69</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N69" s="115">
         <v>0.15</v>
       </c>
       <c r="O69" s="72">
         <f t="shared" ref="O69:O70" si="143">$E69*N69</f>
-        <v>29864.699999999997</v>
+        <v>29864.25</v>
       </c>
       <c r="P69" s="115">
         <v>0</v>
@@ -32081,7 +32099,7 @@
       </c>
       <c r="U69" s="276">
         <f>$E69*T69</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="W69" s="115">
         <v>0</v>
@@ -32176,7 +32194,7 @@
       </c>
       <c r="BD69" s="75">
         <f>$E69*BC69</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="BE69" s="98">
         <f>$AI69</f>
@@ -32203,7 +32221,7 @@
       </c>
       <c r="BM69" s="79">
         <f>$E69*BL69</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="70" spans="2:65">
@@ -32418,12 +32436,12 @@
       <c r="L71" s="99"/>
       <c r="M71" s="102">
         <f>SUM(M69:M70)</f>
-        <v>169233.3</v>
+        <v>169230.75</v>
       </c>
       <c r="N71" s="99"/>
       <c r="O71" s="102">
         <f>SUM(O69:O70)</f>
-        <v>29864.699999999997</v>
+        <v>29864.25</v>
       </c>
       <c r="P71" s="99"/>
       <c r="Q71" s="102">
@@ -32438,7 +32456,7 @@
       <c r="T71" s="114"/>
       <c r="U71" s="278">
         <f>SUM(U69:U70)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="V71" s="99"/>
       <c r="W71" s="99"/>
@@ -32506,7 +32524,7 @@
       <c r="BC71" s="119"/>
       <c r="BD71" s="105">
         <f>SUM(BD69:BD70)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
       <c r="BE71" s="119"/>
       <c r="BF71" s="106">
@@ -32524,7 +32542,7 @@
       <c r="BL71" s="121"/>
       <c r="BM71" s="109">
         <f>SUM(BM69:BM70)</f>
-        <v>199098</v>
+        <v>199095</v>
       </c>
     </row>
     <row r="72" spans="2:65">
@@ -32551,6 +32569,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="H1:U2"/>
     <mergeCell ref="W1:AJ2"/>
@@ -32567,45 +32624,6 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="AW3:AW6"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -32767,16 +32785,16 @@
       <c r="A7" s="188" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="423" t="s">
+      <c r="B7" s="349" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="423" t="s">
+      <c r="C7" s="349" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="423" t="s">
+      <c r="D7" s="349" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="423" t="s">
+      <c r="E7" s="349" t="s">
         <v>223</v>
       </c>
       <c r="F7" s="190">
@@ -32817,16 +32835,16 @@
       <c r="A8" s="188" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="423" t="s">
+      <c r="B8" s="349" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="423" t="s">
+      <c r="C8" s="349" t="s">
         <v>221</v>
       </c>
       <c r="D8" s="193" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="423" t="s">
+      <c r="E8" s="349" t="s">
         <v>226</v>
       </c>
       <c r="F8" s="190">
@@ -32860,23 +32878,23 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="385"/>
-      <c r="C9" s="385"/>
-      <c r="D9" s="385"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="385"/>
-      <c r="G9" s="385"/>
-      <c r="H9" s="385"/>
-      <c r="I9" s="385"/>
-      <c r="J9" s="385"/>
-      <c r="K9" s="385"/>
-      <c r="L9" s="385"/>
-      <c r="M9" s="385"/>
-      <c r="N9" s="385"/>
-      <c r="O9" s="385"/>
+      <c r="B9" s="389"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="389"/>
+      <c r="I9" s="389"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="389"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="389"/>
       <c r="P9" s="198">
         <f>SUM(P7:P8)</f>
         <v>15000</v>
@@ -32886,16 +32904,16 @@
       <c r="A10" s="188" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="423" t="s">
+      <c r="B10" s="349" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="423" t="s">
+      <c r="C10" s="349" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="423" t="s">
+      <c r="D10" s="349" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="423" t="s">
+      <c r="E10" s="349" t="s">
         <v>223</v>
       </c>
       <c r="F10" s="190">
@@ -32936,16 +32954,16 @@
       <c r="A11" s="188" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="423" t="s">
+      <c r="B11" s="349" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="423" t="s">
+      <c r="C11" s="349" t="s">
         <v>221</v>
       </c>
       <c r="D11" s="193" t="s">
         <v>225</v>
       </c>
-      <c r="E11" s="423" t="s">
+      <c r="E11" s="349" t="s">
         <v>226</v>
       </c>
       <c r="F11" s="190">
@@ -32979,23 +32997,23 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
-      <c r="A12" s="385" t="s">
+      <c r="A12" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="385"/>
-      <c r="C12" s="385"/>
-      <c r="D12" s="385"/>
-      <c r="E12" s="385"/>
-      <c r="F12" s="385"/>
-      <c r="G12" s="385"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="385"/>
-      <c r="J12" s="385"/>
-      <c r="K12" s="385"/>
-      <c r="L12" s="385"/>
-      <c r="M12" s="385"/>
-      <c r="N12" s="385"/>
-      <c r="O12" s="385"/>
+      <c r="B12" s="389"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
       <c r="P12" s="198">
         <f>SUM(P10:P11)</f>
         <v>12000</v>
@@ -33005,16 +33023,16 @@
       <c r="A13" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="423" t="s">
+      <c r="B13" s="349" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="423" t="s">
+      <c r="C13" s="349" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="423" t="s">
+      <c r="D13" s="349" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="423" t="s">
+      <c r="E13" s="349" t="s">
         <v>223</v>
       </c>
       <c r="F13" s="190">
@@ -33055,16 +33073,16 @@
       <c r="A14" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="423" t="s">
+      <c r="B14" s="349" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="423" t="s">
+      <c r="C14" s="349" t="s">
         <v>221</v>
       </c>
       <c r="D14" s="193" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="423" t="s">
+      <c r="E14" s="349" t="s">
         <v>226</v>
       </c>
       <c r="F14" s="190">
@@ -33098,23 +33116,23 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
-      <c r="A15" s="385" t="s">
+      <c r="A15" s="389" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="385"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="385"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="385"/>
-      <c r="L15" s="385"/>
-      <c r="M15" s="385"/>
-      <c r="N15" s="385"/>
-      <c r="O15" s="385"/>
+      <c r="B15" s="389"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="389"/>
+      <c r="N15" s="389"/>
+      <c r="O15" s="389"/>
       <c r="P15" s="198">
         <f>SUM(P13:P14)</f>
         <v>12000</v>
@@ -33207,7 +33225,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="422" t="s">
+      <c r="A7" s="348" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="211">
@@ -33215,7 +33233,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="422" t="s">
+      <c r="A8" s="348" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="211">
@@ -33232,7 +33250,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="422" t="s">
+      <c r="A10" s="348" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="211">
@@ -33240,7 +33258,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="422" t="s">
+      <c r="A11" s="348" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="211">
@@ -33257,7 +33275,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="422" t="s">
+      <c r="A13" s="348" t="s">
         <v>208</v>
       </c>
       <c r="B13" s="211">
@@ -33265,7 +33283,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="422" t="s">
+      <c r="A14" s="348" t="s">
         <v>209</v>
       </c>
       <c r="B14" s="211">
@@ -33303,7 +33321,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -33363,42 +33381,42 @@
       <c r="L3" s="146"/>
     </row>
     <row r="5" spans="1:14" ht="18">
-      <c r="A5" s="389" t="s">
+      <c r="A5" s="393" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="389"/>
-      <c r="C5" s="389"/>
-      <c r="D5" s="389"/>
-      <c r="E5" s="389"/>
-      <c r="F5" s="389"/>
-      <c r="G5" s="389"/>
-      <c r="H5" s="389"/>
-      <c r="I5" s="389"/>
-      <c r="J5" s="389"/>
-      <c r="K5" s="389"/>
-      <c r="L5" s="389"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389"/>
+      <c r="B5" s="393"/>
+      <c r="C5" s="393"/>
+      <c r="D5" s="393"/>
+      <c r="E5" s="393"/>
+      <c r="F5" s="393"/>
+      <c r="G5" s="393"/>
+      <c r="H5" s="393"/>
+      <c r="I5" s="393"/>
+      <c r="J5" s="393"/>
+      <c r="K5" s="393"/>
+      <c r="L5" s="393"/>
+      <c r="M5" s="393"/>
+      <c r="N5" s="393"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="390" t="s">
+      <c r="B6" s="394" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="390"/>
-      <c r="D6" s="390"/>
-      <c r="E6" s="390"/>
-      <c r="F6" s="390"/>
-      <c r="G6" s="390"/>
-      <c r="H6" s="390"/>
-      <c r="I6" s="390"/>
-      <c r="J6" s="390"/>
-      <c r="K6" s="390"/>
-      <c r="L6" s="390"/>
-      <c r="M6" s="390"/>
-      <c r="N6" s="390"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="394"/>
+      <c r="E6" s="394"/>
+      <c r="F6" s="394"/>
+      <c r="G6" s="394"/>
+      <c r="H6" s="394"/>
+      <c r="I6" s="394"/>
+      <c r="J6" s="394"/>
+      <c r="K6" s="394"/>
+      <c r="L6" s="394"/>
+      <c r="M6" s="394"/>
+      <c r="N6" s="394"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="32" t="s">
@@ -33458,17 +33476,17 @@
       <c r="I8" s="177"/>
       <c r="J8" s="177"/>
       <c r="K8" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="L8" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="M8" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="N8" s="31">
         <f>SUM(B8:M8)</f>
-        <v>131934.18</v>
+        <v>133092.83333333311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -33476,44 +33494,44 @@
         <v>2018</v>
       </c>
       <c r="B9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="C9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="D9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="E9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="F9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="G9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="H9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="I9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="J9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="K9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="L9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="M9" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="N9" s="31">
         <f>SUM(B9:M9)</f>
-        <v>527736.72</v>
+        <v>532371.33333333244</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -33521,13 +33539,13 @@
         <v>2019</v>
       </c>
       <c r="B10" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="C10" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="D10" s="299">
-        <v>43978.06</v>
+        <v>44364.277777777701</v>
       </c>
       <c r="E10" s="177"/>
       <c r="F10" s="177"/>
@@ -33540,67 +33558,67 @@
       <c r="M10" s="177"/>
       <c r="N10" s="31">
         <f>SUM(B10:M10)</f>
-        <v>131934.18</v>
+        <v>133092.83333333311</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="390" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="387"/>
-      <c r="C11" s="387"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="387"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="387"/>
-      <c r="J11" s="387"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="387"/>
-      <c r="M11" s="388"/>
+      <c r="B11" s="391"/>
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="391"/>
+      <c r="H11" s="391"/>
+      <c r="I11" s="391"/>
+      <c r="J11" s="391"/>
+      <c r="K11" s="391"/>
+      <c r="L11" s="391"/>
+      <c r="M11" s="392"/>
       <c r="N11" s="178">
         <f>SUM(N8:N10)</f>
-        <v>791605.07999999984</v>
+        <v>798556.99999999872</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18">
-      <c r="A13" s="389" t="s">
+      <c r="A13" s="393" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="389"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="389"/>
-      <c r="H13" s="389"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="389"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
+      <c r="B13" s="393"/>
+      <c r="C13" s="393"/>
+      <c r="D13" s="393"/>
+      <c r="E13" s="393"/>
+      <c r="F13" s="393"/>
+      <c r="G13" s="393"/>
+      <c r="H13" s="393"/>
+      <c r="I13" s="393"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="393"/>
+      <c r="L13" s="393"/>
+      <c r="M13" s="393"/>
+      <c r="N13" s="393"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="391" t="s">
+      <c r="B14" s="395" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="390"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="390"/>
-      <c r="I14" s="390"/>
-      <c r="J14" s="390"/>
-      <c r="K14" s="390"/>
-      <c r="L14" s="390"/>
-      <c r="M14" s="390"/>
-      <c r="N14" s="390"/>
+      <c r="C14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="394"/>
+      <c r="G14" s="394"/>
+      <c r="H14" s="394"/>
+      <c r="I14" s="394"/>
+      <c r="J14" s="394"/>
+      <c r="K14" s="394"/>
+      <c r="L14" s="394"/>
+      <c r="M14" s="394"/>
+      <c r="N14" s="394"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="32" t="s">
@@ -33654,35 +33672,35 @@
       <c r="C16" s="179"/>
       <c r="D16" s="179"/>
       <c r="E16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="F16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="G16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="H16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="I16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="J16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="K16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="L16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="M16" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="N16" s="31">
         <f>SUM(B16:M16)</f>
-        <v>470706.02999999991</v>
+        <v>463753.49999999942</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -33690,13 +33708,13 @@
         <v>2020</v>
       </c>
       <c r="B17" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="C17" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="D17" s="299">
-        <v>52300.67</v>
+        <v>51528.166666666599</v>
       </c>
       <c r="E17" s="179"/>
       <c r="F17" s="179"/>
@@ -33709,7 +33727,7 @@
       <c r="M17" s="179"/>
       <c r="N17" s="31">
         <f>SUM(B17:M17)</f>
-        <v>156902.01</v>
+        <v>154584.4999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" hidden="1">
@@ -33734,22 +33752,22 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="18">
-      <c r="A19" s="386"/>
-      <c r="B19" s="387"/>
-      <c r="C19" s="387"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="387"/>
-      <c r="I19" s="387"/>
-      <c r="J19" s="387"/>
-      <c r="K19" s="387"/>
-      <c r="L19" s="387"/>
-      <c r="M19" s="388"/>
+      <c r="A19" s="390"/>
+      <c r="B19" s="391"/>
+      <c r="C19" s="391"/>
+      <c r="D19" s="391"/>
+      <c r="E19" s="391"/>
+      <c r="F19" s="391"/>
+      <c r="G19" s="391"/>
+      <c r="H19" s="391"/>
+      <c r="I19" s="391"/>
+      <c r="J19" s="391"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="391"/>
+      <c r="M19" s="392"/>
       <c r="N19" s="178">
         <f>SUM(N16:N18)</f>
-        <v>627608.03999999992</v>
+        <v>618337.99999999919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -33767,42 +33785,42 @@
       <c r="M20" s="180"/>
     </row>
     <row r="21" spans="1:14" ht="18">
-      <c r="A21" s="389" t="s">
+      <c r="A21" s="393" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="389"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="389"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="389"/>
-      <c r="G21" s="389"/>
-      <c r="H21" s="389"/>
-      <c r="I21" s="389"/>
-      <c r="J21" s="389"/>
-      <c r="K21" s="389"/>
-      <c r="L21" s="389"/>
-      <c r="M21" s="389"/>
-      <c r="N21" s="389"/>
+      <c r="B21" s="393"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="393"/>
+      <c r="K21" s="393"/>
+      <c r="L21" s="393"/>
+      <c r="M21" s="393"/>
+      <c r="N21" s="393"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="391" t="s">
+      <c r="B22" s="395" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="390"/>
-      <c r="G22" s="390"/>
-      <c r="H22" s="390"/>
-      <c r="I22" s="390"/>
-      <c r="J22" s="390"/>
-      <c r="K22" s="390"/>
-      <c r="L22" s="390"/>
-      <c r="M22" s="390"/>
-      <c r="N22" s="390"/>
+      <c r="C22" s="394"/>
+      <c r="D22" s="394"/>
+      <c r="E22" s="394"/>
+      <c r="F22" s="394"/>
+      <c r="G22" s="394"/>
+      <c r="H22" s="394"/>
+      <c r="I22" s="394"/>
+      <c r="J22" s="394"/>
+      <c r="K22" s="394"/>
+      <c r="L22" s="394"/>
+      <c r="M22" s="394"/>
+      <c r="N22" s="394"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="32" t="s">
@@ -33856,35 +33874,35 @@
       <c r="C24" s="179"/>
       <c r="D24" s="179"/>
       <c r="E24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="F24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="G24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="H24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="I24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="J24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="K24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="L24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="M24" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="N24" s="31">
         <f>SUM(B24:M24)</f>
-        <v>484274.97000000009</v>
+        <v>477322.49999997002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -33892,13 +33910,13 @@
         <v>2021</v>
       </c>
       <c r="B25" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="C25" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="D25" s="299">
-        <v>53808.33</v>
+        <v>53035.833333330003</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="179"/>
@@ -33911,7 +33929,7 @@
       <c r="M25" s="179"/>
       <c r="N25" s="31">
         <f>SUM(B25:M25)</f>
-        <v>161424.99</v>
+        <v>159107.49999999002</v>
       </c>
     </row>
     <row r="26" spans="1:14" hidden="1">
@@ -33936,22 +33954,22 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18">
-      <c r="A27" s="386"/>
-      <c r="B27" s="387"/>
-      <c r="C27" s="387"/>
-      <c r="D27" s="387"/>
-      <c r="E27" s="387"/>
-      <c r="F27" s="387"/>
-      <c r="G27" s="387"/>
-      <c r="H27" s="387"/>
-      <c r="I27" s="387"/>
-      <c r="J27" s="387"/>
-      <c r="K27" s="387"/>
-      <c r="L27" s="387"/>
-      <c r="M27" s="388"/>
+      <c r="A27" s="390"/>
+      <c r="B27" s="391"/>
+      <c r="C27" s="391"/>
+      <c r="D27" s="391"/>
+      <c r="E27" s="391"/>
+      <c r="F27" s="391"/>
+      <c r="G27" s="391"/>
+      <c r="H27" s="391"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
+      <c r="M27" s="392"/>
       <c r="N27" s="178">
         <f>SUM(N24:N26)</f>
-        <v>645699.96000000008</v>
+        <v>636429.99999996007</v>
       </c>
     </row>
   </sheetData>
@@ -34023,22 +34041,22 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="394" t="s">
+      <c r="H1" s="398" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="394"/>
-      <c r="J1" s="392" t="s">
+      <c r="I1" s="398"/>
+      <c r="J1" s="396" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="392"/>
-      <c r="L1" s="393" t="s">
+      <c r="K1" s="396"/>
+      <c r="L1" s="397" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="393"/>
-      <c r="N1" s="346" t="s">
+      <c r="M1" s="397"/>
+      <c r="N1" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="346"/>
+      <c r="O1" s="365"/>
     </row>
     <row r="2" spans="1:15" s="37" customFormat="1" ht="23">
       <c r="A2" s="34" t="s">
@@ -34050,14 +34068,14 @@
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="393"/>
-      <c r="M2" s="393"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="397"/>
+      <c r="M2" s="397"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
       <c r="B3" s="53" t="s">
